--- a/GenerateZaFoms/Template/ZaPolis.xlsx
+++ b/GenerateZaFoms/Template/ZaPolis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="184">
   <si>
     <t xml:space="preserve">В </t>
   </si>
@@ -815,6 +815,8 @@
         <vertAlign val="superscript"/>
         <sz val="5"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>15</t>
     </r>
@@ -822,6 +824,8 @@
       <rPr>
         <sz val="5"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> и получение выписки о полисе ОМС из единого регистра застрахованных лиц по электронной почте.</t>
     </r>
@@ -1008,12 +1012,15 @@
       <t>Отказаться от СМС-информирования (в т.ч. через приложение-мессенджер) Вы можете на ___________________.</t>
     </r>
   </si>
+  <si>
+    <t>1.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1108,11 +1115,15 @@
     <font>
       <sz val="5"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="5"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -1129,6 +1140,13 @@
     </font>
     <font>
       <sz val="7"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1173,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1311,30 +1329,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1343,7 +1355,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1352,13 +1381,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1396,7 +1430,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1430,6 +1464,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1464,9 +1499,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1639,12 +1675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="4.42578125" style="17" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" style="17" customWidth="1"/>
@@ -1652,7 +1688,7 @@
     <col min="25" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="14" customFormat="1" ht="12.75">
+    <row r="1" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1679,7 +1715,7 @@
       <c r="W1" s="40"/>
       <c r="X1" s="40"/>
     </row>
-    <row r="2" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1">
+    <row r="2" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1706,7 +1742,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" s="14" customFormat="1" ht="12.75">
+    <row r="3" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1733,7 +1769,7 @@
       <c r="W3" s="40"/>
       <c r="X3" s="40"/>
     </row>
-    <row r="4" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="4" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1760,91 +1796,91 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" s="14" customFormat="1" ht="11.85" customHeight="1">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:24" s="14" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-    </row>
-    <row r="6" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+    </row>
+    <row r="6" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-    </row>
-    <row r="7" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+    </row>
+    <row r="7" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-    </row>
-    <row r="8" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+    </row>
+    <row r="8" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1871,7 +1907,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>53</v>
       </c>
@@ -1898,7 +1934,7 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
     </row>
-    <row r="10" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+    <row r="10" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30"/>
       <c r="B10" s="11" t="s">
         <v>54</v>
@@ -1926,7 +1962,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+    <row r="11" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
       <c r="B11" s="11" t="s">
         <v>55</v>
@@ -1954,7 +1990,7 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
     </row>
-    <row r="12" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+    <row r="12" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="11" t="s">
         <v>56</v>
@@ -1982,35 +2018,35 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
     </row>
-    <row r="13" spans="1:24" s="14" customFormat="1" ht="12.75">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-    </row>
-    <row r="14" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+    </row>
+    <row r="14" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="42"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
@@ -2030,7 +2066,7 @@
       <c r="K14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="41"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="41"/>
       <c r="N14" s="43"/>
       <c r="O14" s="41"/>
@@ -2044,7 +2080,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:24" s="14" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:24" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
@@ -2071,7 +2107,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" s="14" customFormat="1" ht="12.75">
+    <row r="16" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -2081,7 +2117,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
@@ -2094,7 +2130,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="17" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2119,7 +2155,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" s="14" customFormat="1" ht="12.75">
+    <row r="18" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
@@ -2149,7 +2185,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+    <row r="19" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
@@ -2178,63 +2214,63 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B20" s="69" t="s">
+    <row r="20" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="N20" s="69" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="N20" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-    </row>
-    <row r="21" spans="1:24" s="14" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B21" s="69" t="s">
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+    </row>
+    <row r="21" spans="1:24" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="N21" s="69" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="N21" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-    </row>
-    <row r="22" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+    </row>
+    <row r="22" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
@@ -2263,35 +2299,35 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B23" s="69" t="s">
+    <row r="23" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="N23" s="69" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="N23" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-    </row>
-    <row r="24" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+    </row>
+    <row r="24" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
@@ -2320,91 +2356,91 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B25" s="69" t="s">
+    <row r="25" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="N25" s="69" t="s">
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="N25" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-    </row>
-    <row r="26" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B26" s="69" t="s">
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+    </row>
+    <row r="26" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="N26" s="69" t="s">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="N26" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-    </row>
-    <row r="27" spans="1:24" s="14" customFormat="1" ht="31.7" customHeight="1">
-      <c r="A27" s="70" t="s">
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+    </row>
+    <row r="27" spans="1:24" s="14" customFormat="1" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-    </row>
-    <row r="28" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1">
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+    </row>
+    <row r="28" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2431,9 +2467,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A29" s="30" t="s">
-        <v>12</v>
+    <row r="29" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>11</v>
@@ -2458,7 +2494,7 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="41"/>
+      <c r="O29" s="61"/>
       <c r="P29" s="41"/>
       <c r="Q29" s="41"/>
       <c r="R29" s="6"/>
@@ -2469,7 +2505,7 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="30" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1">
+    <row r="30" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="5" t="s">
         <v>16</v>
       </c>
@@ -2494,7 +2530,7 @@
       <c r="W30" s="19"/>
       <c r="X30" s="21"/>
     </row>
-    <row r="31" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+    <row r="31" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>36</v>
       </c>
@@ -2503,7 +2539,7 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="42"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
@@ -2524,7 +2560,7 @@
       <c r="W31" s="41"/>
       <c r="X31" s="41"/>
     </row>
-    <row r="32" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="32" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2550,7 +2586,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>39</v>
       </c>
@@ -2580,20 +2616,20 @@
       <c r="W33" s="22"/>
       <c r="X33" s="22"/>
     </row>
-    <row r="34" spans="1:24" s="14" customFormat="1" ht="12.75">
+    <row r="34" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="49"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="50"/>
       <c r="G34" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H34" s="12"/>
-      <c r="I34" s="49"/>
+      <c r="I34" s="61"/>
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
       <c r="L34" s="50"/>
@@ -2603,7 +2639,7 @@
       <c r="O34" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R34" s="49"/>
+      <c r="R34" s="61"/>
       <c r="S34" s="50"/>
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
@@ -2611,33 +2647,33 @@
       <c r="W34" s="50"/>
       <c r="X34" s="50"/>
     </row>
-    <row r="35" spans="1:24" s="14" customFormat="1" ht="36" customHeight="1">
+    <row r="35" spans="1:24" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-    </row>
-    <row r="36" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+    </row>
+    <row r="36" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
         <v>46</v>
       </c>
@@ -2667,7 +2703,7 @@
       <c r="W36" s="41"/>
       <c r="X36" s="41"/>
     </row>
-    <row r="37" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="37" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2694,7 +2730,7 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
     </row>
-    <row r="38" spans="1:24" s="14" customFormat="1" ht="12.75">
+    <row r="38" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -2702,7 +2738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="12.75">
+    <row r="39" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="12" t="s">
         <v>63</v>
@@ -2732,7 +2768,7 @@
       <c r="W39" s="50"/>
       <c r="X39" s="50"/>
     </row>
-    <row r="40" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="40" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2759,7 +2795,7 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
     </row>
-    <row r="41" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+    <row r="41" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="11" t="s">
         <v>66</v>
@@ -2789,7 +2825,7 @@
       <c r="W41" s="41"/>
       <c r="X41" s="41"/>
     </row>
-    <row r="42" spans="1:24" ht="20.25" customHeight="1">
+    <row r="42" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
         <v>68</v>
@@ -2797,14 +2833,14 @@
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
       <c r="N42" s="13" t="s">
         <v>69</v>
       </c>
@@ -2819,7 +2855,7 @@
       <c r="W42" s="52"/>
       <c r="X42" s="52"/>
     </row>
-    <row r="43" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="43" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2848,7 +2884,7 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
         <v>72</v>
@@ -2880,7 +2916,7 @@
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
     </row>
-    <row r="45" spans="1:24" ht="12.75">
+    <row r="45" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="12" t="s">
         <v>75</v>
@@ -2908,7 +2944,7 @@
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
     </row>
-    <row r="46" spans="1:24" ht="12.75">
+    <row r="46" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="12" t="s">
@@ -2936,7 +2972,7 @@
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
     </row>
-    <row r="47" spans="1:24" ht="12.75">
+    <row r="47" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>76</v>
       </c>
@@ -2966,7 +3002,7 @@
       <c r="W47" s="14"/>
       <c r="X47" s="14"/>
     </row>
-    <row r="48" spans="1:24" ht="12.75">
+    <row r="48" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="12" t="s">
         <v>63</v>
@@ -2996,7 +3032,7 @@
       <c r="W48" s="50"/>
       <c r="X48" s="50"/>
     </row>
-    <row r="49" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="49" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -3023,7 +3059,7 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
     </row>
-    <row r="50" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+    <row r="50" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="11" t="s">
         <v>66</v>
@@ -3053,7 +3089,7 @@
       <c r="W50" s="41"/>
       <c r="X50" s="41"/>
     </row>
-    <row r="51" spans="1:24" ht="20.25" customHeight="1">
+    <row r="51" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>68</v>
@@ -3061,14 +3097,14 @@
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
       <c r="N51" s="13" t="s">
         <v>69</v>
       </c>
@@ -3083,7 +3119,7 @@
       <c r="W51" s="52"/>
       <c r="X51" s="52"/>
     </row>
-    <row r="52" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="52" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3112,7 +3148,7 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
         <v>72</v>
@@ -3144,7 +3180,7 @@
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
     </row>
-    <row r="54" spans="1:24" ht="12.75">
+    <row r="54" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>77</v>
       </c>
@@ -3174,7 +3210,7 @@
       <c r="W54" s="23"/>
       <c r="X54" s="23"/>
     </row>
-    <row r="55" spans="1:24" ht="12.75">
+    <row r="55" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="12" t="s">
         <v>81</v>
@@ -3202,7 +3238,7 @@
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
     </row>
-    <row r="56" spans="1:24" ht="12.75">
+    <row r="56" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="12" t="s">
         <v>82</v>
@@ -3232,84 +3268,84 @@
       <c r="W56" s="14"/>
       <c r="X56" s="14"/>
     </row>
-    <row r="57" spans="1:24" s="14" customFormat="1" ht="14.25" customHeight="1">
+    <row r="57" spans="1:24" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="15"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="73"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="73"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
-      <c r="X57" s="73"/>
-    </row>
-    <row r="58" spans="1:24" s="14" customFormat="1" ht="14.25" customHeight="1">
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+    </row>
+    <row r="58" spans="1:24" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E58" s="15"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="64"/>
-      <c r="V58" s="64"/>
-      <c r="W58" s="64"/>
-      <c r="X58" s="64"/>
-    </row>
-    <row r="59" spans="1:24" ht="18.75" customHeight="1">
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+    </row>
+    <row r="59" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
-      <c r="P59" s="69"/>
-      <c r="Q59" s="69"/>
-      <c r="R59" s="69"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="69"/>
-      <c r="U59" s="69"/>
-      <c r="V59" s="69"/>
-      <c r="W59" s="69"/>
-      <c r="X59" s="69"/>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
+      <c r="W59" s="66"/>
+      <c r="X59" s="66"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -3339,7 +3375,7 @@
       <c r="W60" s="27"/>
       <c r="X60" s="27"/>
     </row>
-    <row r="61" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="61" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3368,7 +3404,7 @@
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>89</v>
       </c>
@@ -3398,7 +3434,7 @@
       <c r="W62" s="27"/>
       <c r="X62" s="27"/>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="27" t="s">
         <v>91</v>
@@ -3432,7 +3468,7 @@
       <c r="W63" s="27"/>
       <c r="X63" s="27"/>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="27" t="s">
         <v>94</v>
@@ -3460,37 +3496,37 @@
       <c r="W64" s="27"/>
       <c r="X64" s="27"/>
     </row>
-    <row r="65" spans="1:24" ht="18.75" customHeight="1">
+    <row r="65" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="69"/>
-      <c r="P65" s="69"/>
-      <c r="Q65" s="69"/>
-      <c r="R65" s="69"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="69"/>
-      <c r="U65" s="69"/>
-      <c r="V65" s="69"/>
-      <c r="W65" s="69"/>
-      <c r="X65" s="69"/>
-    </row>
-    <row r="66" spans="1:24" ht="12.75">
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="66"/>
+      <c r="U65" s="66"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+    </row>
+    <row r="66" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="12" t="s">
         <v>97</v>
@@ -3520,37 +3556,37 @@
       <c r="W66" s="14"/>
       <c r="X66" s="14"/>
     </row>
-    <row r="67" spans="1:24" ht="18.75" customHeight="1">
+    <row r="67" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="69" t="s">
+      <c r="B67" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="69"/>
-      <c r="O67" s="69"/>
-      <c r="P67" s="69"/>
-      <c r="Q67" s="69"/>
-      <c r="R67" s="69"/>
-      <c r="S67" s="69"/>
-      <c r="T67" s="69"/>
-      <c r="U67" s="69"/>
-      <c r="V67" s="69"/>
-      <c r="W67" s="69"/>
-      <c r="X67" s="69"/>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="66"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="66"/>
+      <c r="T67" s="66"/>
+      <c r="U67" s="66"/>
+      <c r="V67" s="66"/>
+      <c r="W67" s="66"/>
+      <c r="X67" s="66"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B68" s="54"/>
       <c r="C68" s="54"/>
       <c r="D68" s="54"/>
@@ -3575,7 +3611,7 @@
       <c r="W68" s="54"/>
       <c r="X68" s="54"/>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="26" t="s">
         <v>101</v>
       </c>
@@ -3583,33 +3619,33 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1">
+    <row r="73" spans="1:24" s="14" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65"/>
-      <c r="N73" s="65"/>
-      <c r="O73" s="65"/>
-      <c r="P73" s="65"/>
-      <c r="Q73" s="65"/>
-      <c r="R73" s="65"/>
-      <c r="S73" s="65"/>
-      <c r="T73" s="65"/>
-      <c r="U73" s="65"/>
-      <c r="V73" s="65"/>
-      <c r="W73" s="65"/>
-      <c r="X73" s="65"/>
-    </row>
-    <row r="74" spans="1:24" ht="10.35" customHeight="1">
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="77"/>
+      <c r="P73" s="77"/>
+      <c r="Q73" s="77"/>
+      <c r="R73" s="77"/>
+      <c r="S73" s="77"/>
+      <c r="T73" s="77"/>
+      <c r="U73" s="77"/>
+      <c r="V73" s="77"/>
+      <c r="W73" s="77"/>
+      <c r="X73" s="77"/>
+    </row>
+    <row r="74" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O74" s="28" t="s">
         <v>87</v>
       </c>
@@ -3623,7 +3659,7 @@
       <c r="U74" s="53"/>
       <c r="V74" s="53"/>
     </row>
-    <row r="75" spans="1:24" ht="11.25" customHeight="1">
+    <row r="75" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26" t="s">
         <v>103</v>
       </c>
@@ -3642,7 +3678,7 @@
       <c r="W75" s="54"/>
       <c r="X75" s="54"/>
     </row>
-    <row r="76" spans="1:24" ht="11.1" customHeight="1">
+    <row r="76" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26" t="s">
         <v>105</v>
       </c>
@@ -3650,7 +3686,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="11.1" customHeight="1">
+    <row r="77" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>107</v>
       </c>
@@ -3677,14 +3713,14 @@
       <c r="U77" s="54"/>
       <c r="V77" s="54"/>
     </row>
-    <row r="78" spans="1:24" ht="11.25" customHeight="1">
+    <row r="78" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="54"/>
+      <c r="G78" s="64"/>
       <c r="H78" s="54"/>
       <c r="I78" s="54"/>
       <c r="J78" s="54"/>
@@ -3701,7 +3737,7 @@
       <c r="U78" s="54"/>
       <c r="V78" s="54"/>
     </row>
-    <row r="79" spans="1:24" ht="11.1" customHeight="1">
+    <row r="79" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="26" t="s">
         <v>113</v>
       </c>
@@ -3709,7 +3745,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="10.35" customHeight="1">
+    <row r="80" spans="1:24" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="17" t="s">
         <v>115</v>
       </c>
@@ -3718,7 +3754,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="10.35" customHeight="1">
+    <row r="81" spans="1:24" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="17" t="s">
         <v>117</v>
       </c>
@@ -3727,25 +3763,25 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="10.35" customHeight="1">
-      <c r="B82" s="66" t="s">
+    <row r="82" spans="1:24" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="78"/>
       <c r="O82" s="32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="11.1" customHeight="1">
+    <row r="83" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O83" s="54"/>
       <c r="P83" s="54"/>
       <c r="Q83" s="54"/>
@@ -3755,35 +3791,35 @@
       <c r="U83" s="54"/>
       <c r="V83" s="54"/>
     </row>
-    <row r="84" spans="1:24" ht="12.2" customHeight="1">
-      <c r="A84" s="67" t="s">
+    <row r="84" spans="1:24" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="67"/>
-      <c r="S84" s="67"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="67"/>
-      <c r="V84" s="67"/>
-      <c r="W84" s="67"/>
-      <c r="X84" s="67"/>
-    </row>
-    <row r="85" spans="1:24" s="14" customFormat="1" ht="10.35" customHeight="1">
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="71"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71"/>
+      <c r="R84" s="71"/>
+      <c r="S84" s="71"/>
+      <c r="T84" s="71"/>
+      <c r="U84" s="71"/>
+      <c r="V84" s="71"/>
+      <c r="W84" s="71"/>
+      <c r="X84" s="71"/>
+    </row>
+    <row r="85" spans="1:24" s="14" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>122</v>
       </c>
@@ -3817,7 +3853,7 @@
       <c r="W85" s="8"/>
       <c r="X85" s="8"/>
     </row>
-    <row r="86" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="86" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
@@ -3843,7 +3879,7 @@
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="1:24" s="14" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="87" spans="1:24" s="14" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>124</v>
       </c>
@@ -3866,7 +3902,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="88" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3887,7 +3923,7 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
+    <row r="89" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>126</v>
       </c>
@@ -3924,7 +3960,7 @@
       <c r="W89" s="17"/>
       <c r="X89" s="17"/>
     </row>
-    <row r="90" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="90" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3952,35 +3988,35 @@
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
     </row>
-    <row r="91" spans="1:24" ht="12.2" customHeight="1">
-      <c r="A91" s="67" t="s">
+    <row r="91" spans="1:24" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="67"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
-      <c r="M91" s="67"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="67"/>
-      <c r="P91" s="67"/>
-      <c r="Q91" s="67"/>
-      <c r="R91" s="67"/>
-      <c r="S91" s="67"/>
-      <c r="T91" s="67"/>
-      <c r="U91" s="67"/>
-      <c r="V91" s="67"/>
-      <c r="W91" s="67"/>
-      <c r="X91" s="67"/>
-    </row>
-    <row r="92" spans="1:24" ht="9.9499999999999993" customHeight="1">
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
+      <c r="K91" s="71"/>
+      <c r="L91" s="71"/>
+      <c r="M91" s="71"/>
+      <c r="N91" s="71"/>
+      <c r="O91" s="71"/>
+      <c r="P91" s="71"/>
+      <c r="Q91" s="71"/>
+      <c r="R91" s="71"/>
+      <c r="S91" s="71"/>
+      <c r="T91" s="71"/>
+      <c r="U91" s="71"/>
+      <c r="V91" s="71"/>
+      <c r="W91" s="71"/>
+      <c r="X91" s="71"/>
+    </row>
+    <row r="92" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>142</v>
       </c>
@@ -4014,7 +4050,7 @@
       <c r="W92" s="8"/>
       <c r="X92" s="8"/>
     </row>
-    <row r="93" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="93" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="D93" s="5" t="s">
         <v>15</v>
@@ -4035,7 +4071,7 @@
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
     </row>
-    <row r="94" spans="1:24" ht="9.9499999999999993" customHeight="1">
+    <row r="94" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>144</v>
       </c>
@@ -4065,7 +4101,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="95" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -4086,7 +4122,7 @@
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
     </row>
-    <row r="96" spans="1:24" ht="11.1" customHeight="1">
+    <row r="96" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>145</v>
       </c>
@@ -4112,7 +4148,7 @@
       <c r="O96" s="49"/>
       <c r="P96" s="49"/>
     </row>
-    <row r="97" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1">
+    <row r="97" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="5"/>
       <c r="C97" s="36" t="s">
         <v>16</v>
@@ -4137,7 +4173,7 @@
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
     </row>
-    <row r="98" spans="1:24" ht="9.9499999999999993" customHeight="1">
+    <row r="98" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>147</v>
       </c>
@@ -4167,7 +4203,7 @@
       <c r="W98" s="50"/>
       <c r="X98" s="50"/>
     </row>
-    <row r="99" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1">
+    <row r="99" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4188,22 +4224,22 @@
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
     </row>
-    <row r="100" spans="1:24" ht="12.75">
+    <row r="100" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="66"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="78"/>
       <c r="N100" s="17" t="s">
         <v>130</v>
       </c>
@@ -4216,17 +4252,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="12.75">
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
+    <row r="101" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
+      <c r="J101" s="78"/>
+      <c r="K101" s="78"/>
       <c r="N101" s="17" t="s">
         <v>133</v>
       </c>
@@ -4239,29 +4275,29 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="28.5" customHeight="1">
+    <row r="102" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="61" t="s">
+      <c r="B102" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="62"/>
-      <c r="N102" s="62"/>
-      <c r="O102" s="62"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="62"/>
-      <c r="R102" s="63"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="75"/>
+      <c r="K102" s="75"/>
+      <c r="L102" s="75"/>
+      <c r="M102" s="75"/>
+      <c r="N102" s="75"/>
+      <c r="O102" s="75"/>
+      <c r="P102" s="75"/>
+      <c r="Q102" s="75"/>
+      <c r="R102" s="76"/>
       <c r="S102" s="56"/>
       <c r="T102" s="57"/>
       <c r="U102" s="57"/>
@@ -4269,7 +4305,7 @@
       <c r="W102" s="57"/>
       <c r="X102" s="57"/>
     </row>
-    <row r="103" spans="1:24" ht="10.7" customHeight="1">
+    <row r="103" spans="1:24" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>150</v>
       </c>
@@ -4305,33 +4341,33 @@
       <c r="W103" s="50"/>
       <c r="X103" s="50"/>
     </row>
-    <row r="104" spans="1:24" s="14" customFormat="1" ht="30.75" customHeight="1">
+    <row r="104" spans="1:24" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="64"/>
-      <c r="H104" s="64"/>
-      <c r="I104" s="64"/>
-      <c r="J104" s="64"/>
-      <c r="K104" s="64"/>
-      <c r="L104" s="64"/>
-      <c r="M104" s="64"/>
-      <c r="N104" s="64"/>
-      <c r="O104" s="64"/>
-      <c r="P104" s="64"/>
-      <c r="Q104" s="64"/>
-      <c r="R104" s="64"/>
-      <c r="S104" s="64"/>
-      <c r="T104" s="64"/>
-      <c r="U104" s="64"/>
-      <c r="V104" s="64"/>
-      <c r="W104" s="64"/>
-      <c r="X104" s="64"/>
-    </row>
-    <row r="105" spans="1:24">
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
+      <c r="L104" s="67"/>
+      <c r="M104" s="67"/>
+      <c r="N104" s="67"/>
+      <c r="O104" s="67"/>
+      <c r="P104" s="67"/>
+      <c r="Q104" s="67"/>
+      <c r="R104" s="67"/>
+      <c r="S104" s="67"/>
+      <c r="T104" s="67"/>
+      <c r="U104" s="67"/>
+      <c r="V104" s="67"/>
+      <c r="W104" s="67"/>
+      <c r="X104" s="67"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>151</v>
       </c>
@@ -4339,7 +4375,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="12.75">
+    <row r="106" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="12" t="s">
         <v>41</v>
       </c>
@@ -4372,7 +4408,7 @@
       <c r="W106" s="20"/>
       <c r="X106" s="20"/>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="26" t="s">
         <v>152</v>
       </c>
@@ -4391,7 +4427,7 @@
       <c r="W107" s="54"/>
       <c r="X107" s="54"/>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="26" t="s">
         <v>153</v>
       </c>
@@ -4412,7 +4448,7 @@
       <c r="W108" s="54"/>
       <c r="X108" s="54"/>
     </row>
-    <row r="109" spans="1:24" ht="12.75">
+    <row r="109" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>154</v>
       </c>
@@ -4442,7 +4478,7 @@
       <c r="W109" s="14"/>
       <c r="X109" s="14"/>
     </row>
-    <row r="110" spans="1:24" ht="12.75">
+    <row r="110" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="14"/>
       <c r="B110" s="12" t="s">
         <v>63</v>
@@ -4472,7 +4508,7 @@
       <c r="W110" s="50"/>
       <c r="X110" s="50"/>
     </row>
-    <row r="111" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1">
+    <row r="111" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4494,7 +4530,7 @@
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
     </row>
-    <row r="112" spans="1:24" ht="9.9499999999999993" customHeight="1">
+    <row r="112" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12" t="s">
         <v>66</v>
@@ -4524,7 +4560,7 @@
       <c r="W112" s="50"/>
       <c r="X112" s="50"/>
     </row>
-    <row r="113" spans="1:24" ht="20.25" customHeight="1">
+    <row r="113" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="B113" s="13" t="s">
         <v>68</v>
@@ -4532,14 +4568,14 @@
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113" s="24"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
-      <c r="K113" s="64"/>
-      <c r="L113" s="64"/>
-      <c r="M113" s="64"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="67"/>
+      <c r="M113" s="67"/>
       <c r="N113" s="13" t="s">
         <v>69</v>
       </c>
@@ -4554,7 +4590,7 @@
       <c r="W113" s="52"/>
       <c r="X113" s="52"/>
     </row>
-    <row r="114" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1">
+    <row r="114" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4578,7 +4614,7 @@
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="12"/>
       <c r="B115" s="12" t="s">
         <v>72</v>
@@ -4610,7 +4646,7 @@
       <c r="W115" s="12"/>
       <c r="X115" s="12"/>
     </row>
-    <row r="116" spans="1:24" ht="12.75">
+    <row r="116" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="14"/>
       <c r="B116" s="12" t="s">
         <v>75</v>
@@ -4638,7 +4674,7 @@
       <c r="W116" s="14"/>
       <c r="X116" s="14"/>
     </row>
-    <row r="117" spans="1:24" ht="12.75">
+    <row r="117" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="12" t="s">
@@ -4666,7 +4702,7 @@
       <c r="W117" s="14"/>
       <c r="X117" s="14"/>
     </row>
-    <row r="118" spans="1:24" ht="12.75">
+    <row r="118" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>155</v>
       </c>
@@ -4696,7 +4732,7 @@
       <c r="W118" s="14"/>
       <c r="X118" s="14"/>
     </row>
-    <row r="119" spans="1:24" ht="12.75">
+    <row r="119" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
       <c r="B119" s="12" t="s">
         <v>63</v>
@@ -4726,7 +4762,7 @@
       <c r="W119" s="50"/>
       <c r="X119" s="50"/>
     </row>
-    <row r="120" spans="1:24" ht="12.75">
+    <row r="120" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4754,7 +4790,7 @@
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
     </row>
-    <row r="121" spans="1:24" ht="9.9499999999999993" customHeight="1">
+    <row r="121" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="B121" s="12" t="s">
         <v>66</v>
@@ -4784,7 +4820,7 @@
       <c r="W121" s="50"/>
       <c r="X121" s="50"/>
     </row>
-    <row r="122" spans="1:24" ht="20.25" customHeight="1">
+    <row r="122" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="13" t="s">
         <v>68</v>
@@ -4792,14 +4828,14 @@
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="24"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
-      <c r="L122" s="64"/>
-      <c r="M122" s="64"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
+      <c r="L122" s="67"/>
+      <c r="M122" s="67"/>
       <c r="N122" s="13" t="s">
         <v>69</v>
       </c>
@@ -4814,7 +4850,7 @@
       <c r="W122" s="52"/>
       <c r="X122" s="52"/>
     </row>
-    <row r="123" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1">
+    <row r="123" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -4838,7 +4874,7 @@
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12" t="s">
         <v>72</v>
@@ -4870,7 +4906,7 @@
       <c r="W124" s="12"/>
       <c r="X124" s="12"/>
     </row>
-    <row r="125" spans="1:24" ht="12.75">
+    <row r="125" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="28" t="s">
         <v>156</v>
       </c>
@@ -4897,14 +4933,14 @@
       <c r="U125" s="54"/>
       <c r="V125" s="54"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" ht="12" x14ac:dyDescent="0.2">
       <c r="A126" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B126" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G126" s="54"/>
+      <c r="G126" s="64"/>
       <c r="H126" s="54"/>
       <c r="I126" s="54"/>
       <c r="J126" s="54"/>
@@ -4921,35 +4957,35 @@
       <c r="U126" s="54"/>
       <c r="V126" s="54"/>
     </row>
-    <row r="127" spans="1:24" ht="12">
-      <c r="A127" s="67" t="s">
+    <row r="127" spans="1:24" ht="12" x14ac:dyDescent="0.2">
+      <c r="A127" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="B127" s="67"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
-      <c r="K127" s="67"/>
-      <c r="L127" s="67"/>
-      <c r="M127" s="67"/>
-      <c r="N127" s="67"/>
-      <c r="O127" s="67"/>
-      <c r="P127" s="67"/>
-      <c r="Q127" s="67"/>
-      <c r="R127" s="67"/>
-      <c r="S127" s="67"/>
-      <c r="T127" s="67"/>
-      <c r="U127" s="67"/>
-      <c r="V127" s="67"/>
-      <c r="W127" s="67"/>
-      <c r="X127" s="67"/>
-    </row>
-    <row r="128" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1">
+      <c r="B127" s="71"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="71"/>
+      <c r="L127" s="71"/>
+      <c r="M127" s="71"/>
+      <c r="N127" s="71"/>
+      <c r="O127" s="71"/>
+      <c r="P127" s="71"/>
+      <c r="Q127" s="71"/>
+      <c r="R127" s="71"/>
+      <c r="S127" s="71"/>
+      <c r="T127" s="71"/>
+      <c r="U127" s="71"/>
+      <c r="V127" s="71"/>
+      <c r="W127" s="71"/>
+      <c r="X127" s="71"/>
+    </row>
+    <row r="128" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="54"/>
       <c r="B128" s="54"/>
       <c r="C128" s="54"/>
@@ -4979,7 +5015,7 @@
       <c r="W128" s="17"/>
       <c r="X128" s="17"/>
     </row>
-    <row r="129" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+    <row r="129" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="36" t="s">
         <v>166</v>
       </c>
@@ -5008,7 +5044,7 @@
       <c r="W129" s="5"/>
       <c r="X129" s="5"/>
     </row>
-    <row r="130" spans="1:24" s="14" customFormat="1" ht="12.75">
+    <row r="130" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>162</v>
       </c>
@@ -5036,7 +5072,7 @@
       <c r="W130" s="17"/>
       <c r="X130" s="17"/>
     </row>
-    <row r="131" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="131" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -5064,7 +5100,7 @@
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
     </row>
-    <row r="132" spans="1:24" s="14" customFormat="1" ht="9.75" customHeight="1">
+    <row r="132" spans="1:24" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -5091,35 +5127,35 @@
       <c r="W132" s="17"/>
       <c r="X132" s="17"/>
     </row>
-    <row r="133" spans="1:24" s="14" customFormat="1" ht="36" customHeight="1">
+    <row r="133" spans="1:24" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
-      <c r="B133" s="68" t="s">
+      <c r="B133" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C133" s="68"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="68"/>
-      <c r="H133" s="68"/>
-      <c r="I133" s="68"/>
-      <c r="J133" s="68"/>
-      <c r="K133" s="68"/>
-      <c r="L133" s="68"/>
-      <c r="M133" s="68"/>
-      <c r="N133" s="68"/>
-      <c r="O133" s="68"/>
-      <c r="P133" s="68"/>
-      <c r="Q133" s="68"/>
-      <c r="R133" s="68"/>
-      <c r="S133" s="68"/>
-      <c r="T133" s="68"/>
-      <c r="U133" s="68"/>
-      <c r="V133" s="68"/>
-      <c r="W133" s="68"/>
-      <c r="X133" s="68"/>
-    </row>
-    <row r="134" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1">
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="72"/>
+      <c r="L133" s="72"/>
+      <c r="M133" s="72"/>
+      <c r="N133" s="72"/>
+      <c r="O133" s="72"/>
+      <c r="P133" s="72"/>
+      <c r="Q133" s="72"/>
+      <c r="R133" s="72"/>
+      <c r="S133" s="72"/>
+      <c r="T133" s="72"/>
+      <c r="U133" s="72"/>
+      <c r="V133" s="72"/>
+      <c r="W133" s="72"/>
+      <c r="X133" s="72"/>
+    </row>
+    <row r="134" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
       <c r="B134" s="54"/>
       <c r="C134" s="54"/>
@@ -5145,7 +5181,7 @@
       <c r="W134" s="17"/>
       <c r="X134" s="17"/>
     </row>
-    <row r="135" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1">
+    <row r="135" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="36"/>
       <c r="B135" s="5" t="s">
         <v>166</v>
@@ -5174,35 +5210,35 @@
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
     </row>
-    <row r="136" spans="1:24" s="14" customFormat="1" ht="25.5" customHeight="1">
+    <row r="136" spans="1:24" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
-      <c r="B136" s="68" t="s">
+      <c r="B136" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="68"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="68"/>
-      <c r="H136" s="68"/>
-      <c r="I136" s="68"/>
-      <c r="J136" s="68"/>
-      <c r="K136" s="68"/>
-      <c r="L136" s="68"/>
-      <c r="M136" s="68"/>
-      <c r="N136" s="68"/>
-      <c r="O136" s="68"/>
-      <c r="P136" s="68"/>
-      <c r="Q136" s="68"/>
-      <c r="R136" s="68"/>
-      <c r="S136" s="68"/>
-      <c r="T136" s="68"/>
-      <c r="U136" s="68"/>
-      <c r="V136" s="68"/>
-      <c r="W136" s="68"/>
-      <c r="X136" s="68"/>
-    </row>
-    <row r="137" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+      <c r="C136" s="72"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
+      <c r="L136" s="72"/>
+      <c r="M136" s="72"/>
+      <c r="N136" s="72"/>
+      <c r="O136" s="72"/>
+      <c r="P136" s="72"/>
+      <c r="Q136" s="72"/>
+      <c r="R136" s="72"/>
+      <c r="S136" s="72"/>
+      <c r="T136" s="72"/>
+      <c r="U136" s="72"/>
+      <c r="V136" s="72"/>
+      <c r="W136" s="72"/>
+      <c r="X136" s="72"/>
+    </row>
+    <row r="137" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
       <c r="B137" s="54"/>
       <c r="C137" s="54"/>
@@ -5228,7 +5264,7 @@
       <c r="W137" s="17"/>
       <c r="X137" s="17"/>
     </row>
-    <row r="138" spans="1:24" s="14" customFormat="1" ht="13.5" customHeight="1">
+    <row r="138" spans="1:24" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="36"/>
       <c r="B138" s="58" t="s">
         <v>166</v>
@@ -5256,7 +5292,7 @@
       <c r="W138" s="5"/>
       <c r="X138" s="5"/>
     </row>
-    <row r="139" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="139" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="59" t="s">
         <v>167</v>
       </c>
@@ -5278,7 +5314,7 @@
       <c r="W139" s="17"/>
       <c r="X139" s="17"/>
     </row>
-    <row r="140" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="140" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="38" t="s">
         <v>168</v>
       </c>
@@ -5299,7 +5335,7 @@
       <c r="W140" s="17"/>
       <c r="X140" s="17"/>
     </row>
-    <row r="141" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="141" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="37" t="s">
         <v>170</v>
       </c>
@@ -5320,7 +5356,7 @@
       <c r="W141" s="17"/>
       <c r="X141" s="17"/>
     </row>
-    <row r="142" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="142" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="37" t="s">
         <v>171</v>
       </c>
@@ -5341,7 +5377,7 @@
       <c r="W142" s="17"/>
       <c r="X142" s="17"/>
     </row>
-    <row r="143" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="143" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="37" t="s">
         <v>172</v>
       </c>
@@ -5362,7 +5398,7 @@
       <c r="W143" s="17"/>
       <c r="X143" s="17"/>
     </row>
-    <row r="144" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="144" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="37" t="s">
         <v>173</v>
       </c>
@@ -5383,7 +5419,7 @@
       <c r="W144" s="17"/>
       <c r="X144" s="17"/>
     </row>
-    <row r="145" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="145" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="37" t="s">
         <v>174</v>
       </c>
@@ -5404,7 +5440,7 @@
       <c r="W145" s="17"/>
       <c r="X145" s="17"/>
     </row>
-    <row r="146" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="146" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="37" t="s">
         <v>175</v>
       </c>
@@ -5422,7 +5458,7 @@
       <c r="W146" s="17"/>
       <c r="X146" s="17"/>
     </row>
-    <row r="147" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="147" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
@@ -5438,7 +5474,7 @@
       <c r="W147" s="17"/>
       <c r="X147" s="17"/>
     </row>
-    <row r="148" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="148" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
@@ -5454,7 +5490,7 @@
       <c r="W148" s="17"/>
       <c r="X148" s="17"/>
     </row>
-    <row r="149" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="149" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
@@ -5470,7 +5506,7 @@
       <c r="W149" s="17"/>
       <c r="X149" s="17"/>
     </row>
-    <row r="150" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="150" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
       <c r="F150" s="17"/>
@@ -5486,7 +5522,7 @@
       <c r="W150" s="17"/>
       <c r="X150" s="17"/>
     </row>
-    <row r="151" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="151" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
@@ -5502,7 +5538,7 @@
       <c r="W151" s="17"/>
       <c r="X151" s="17"/>
     </row>
-    <row r="152" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="152" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
       <c r="F152" s="17"/>
@@ -5518,7 +5554,7 @@
       <c r="W152" s="17"/>
       <c r="X152" s="17"/>
     </row>
-    <row r="153" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1">
+    <row r="153" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
@@ -5536,6 +5572,29 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B102:R102"/>
+    <mergeCell ref="D104:X104"/>
+    <mergeCell ref="B73:X73"/>
+    <mergeCell ref="B82:L82"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="A91:X91"/>
+    <mergeCell ref="B100:K101"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="A27:X27"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="B136:X136"/>
+    <mergeCell ref="F113:M113"/>
+    <mergeCell ref="F122:M122"/>
+    <mergeCell ref="A127:X127"/>
+    <mergeCell ref="B133:X133"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A6:X6"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A13:X13"/>
+    <mergeCell ref="B20:L20"/>
     <mergeCell ref="D35:X35"/>
     <mergeCell ref="N26:X26"/>
     <mergeCell ref="B25:L25"/>
@@ -5547,29 +5606,6 @@
     <mergeCell ref="B59:X59"/>
     <mergeCell ref="B65:X65"/>
     <mergeCell ref="B23:L23"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A6:X6"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A13:X13"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B136:X136"/>
-    <mergeCell ref="F113:M113"/>
-    <mergeCell ref="F122:M122"/>
-    <mergeCell ref="A127:X127"/>
-    <mergeCell ref="B133:X133"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="A27:X27"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="B102:R102"/>
-    <mergeCell ref="D104:X104"/>
-    <mergeCell ref="B73:X73"/>
-    <mergeCell ref="B82:L82"/>
-    <mergeCell ref="A84:X84"/>
-    <mergeCell ref="A91:X91"/>
-    <mergeCell ref="B100:K101"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>

--- a/GenerateZaFoms/Template/ZaPolis.xlsx
+++ b/GenerateZaFoms/Template/ZaPolis.xlsx
@@ -1191,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1337,6 +1337,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1797,88 +1803,88 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" s="14" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
     </row>
     <row r="6" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
     </row>
     <row r="7" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
     </row>
     <row r="8" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
@@ -2019,32 +2025,32 @@
       <c r="X12" s="6"/>
     </row>
     <row r="13" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
     </row>
     <row r="14" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
@@ -2215,60 +2221,60 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="N20" s="66" t="s">
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="N20" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
     </row>
     <row r="21" spans="1:24" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="N21" s="66" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="N21" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
     </row>
     <row r="22" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
@@ -2300,32 +2306,32 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="N23" s="66" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="N23" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
     </row>
     <row r="24" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
@@ -2357,88 +2363,88 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="N25" s="66" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="N25" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
     </row>
     <row r="26" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="N26" s="66" t="s">
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="N26" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
     </row>
     <row r="27" spans="1:24" s="14" customFormat="1" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
     </row>
     <row r="28" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
@@ -2651,27 +2657,27 @@
       <c r="B35" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
     </row>
     <row r="36" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
@@ -2833,14 +2839,14 @@
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
       <c r="N42" s="13" t="s">
         <v>69</v>
       </c>
@@ -3097,14 +3103,14 @@
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
       <c r="N51" s="13" t="s">
         <v>69</v>
       </c>
@@ -3268,82 +3274,82 @@
       <c r="W56" s="14"/>
       <c r="X56" s="14"/>
     </row>
-    <row r="57" spans="1:24" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="15"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-    </row>
-    <row r="58" spans="1:24" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="70"/>
+    </row>
+    <row r="58" spans="1:24" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E58" s="15"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="67"/>
-      <c r="T58" s="67"/>
-      <c r="U58" s="67"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="67"/>
-      <c r="X58" s="67"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="69"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="69"/>
+      <c r="V58" s="69"/>
+      <c r="W58" s="69"/>
+      <c r="X58" s="69"/>
     </row>
     <row r="59" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="66"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="66"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
@@ -3497,34 +3503,34 @@
       <c r="X64" s="27"/>
     </row>
     <row r="65" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
-      <c r="W65" s="66"/>
-      <c r="X65" s="66"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+      <c r="R65" s="68"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="68"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="68"/>
+      <c r="W65" s="68"/>
+      <c r="X65" s="68"/>
     </row>
     <row r="66" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
@@ -3557,59 +3563,59 @@
       <c r="X66" s="14"/>
     </row>
     <row r="67" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-      <c r="W68" s="54"/>
-      <c r="X68" s="54"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="68"/>
+      <c r="Q67" s="68"/>
+      <c r="R67" s="68"/>
+      <c r="S67" s="68"/>
+      <c r="T67" s="68"/>
+      <c r="U67" s="68"/>
+      <c r="V67" s="68"/>
+      <c r="W67" s="68"/>
+      <c r="X67" s="68"/>
+    </row>
+    <row r="68" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="66"/>
+      <c r="T68" s="66"/>
+      <c r="U68" s="66"/>
+      <c r="V68" s="66"/>
+      <c r="W68" s="66"/>
+      <c r="X68" s="66"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="26" t="s">
@@ -3621,29 +3627,29 @@
     </row>
     <row r="73" spans="1:24" s="14" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
-      <c r="M73" s="77"/>
-      <c r="N73" s="77"/>
-      <c r="O73" s="77"/>
-      <c r="P73" s="77"/>
-      <c r="Q73" s="77"/>
-      <c r="R73" s="77"/>
-      <c r="S73" s="77"/>
-      <c r="T73" s="77"/>
-      <c r="U73" s="77"/>
-      <c r="V73" s="77"/>
-      <c r="W73" s="77"/>
-      <c r="X73" s="77"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="79"/>
+      <c r="T73" s="79"/>
+      <c r="U73" s="79"/>
+      <c r="V73" s="79"/>
+      <c r="W73" s="79"/>
+      <c r="X73" s="79"/>
     </row>
     <row r="74" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O74" s="28" t="s">
@@ -3764,19 +3770,19 @@
       </c>
     </row>
     <row r="82" spans="1:24" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="78"/>
-      <c r="J82" s="78"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="78"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="80"/>
+      <c r="H82" s="80"/>
+      <c r="I82" s="80"/>
+      <c r="J82" s="80"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="80"/>
       <c r="O82" s="32" t="s">
         <v>120</v>
       </c>
@@ -3792,32 +3798,32 @@
       <c r="V83" s="54"/>
     </row>
     <row r="84" spans="1:24" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="71" t="s">
+      <c r="A84" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71"/>
-      <c r="O84" s="71"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="71"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="71"/>
-      <c r="T84" s="71"/>
-      <c r="U84" s="71"/>
-      <c r="V84" s="71"/>
-      <c r="W84" s="71"/>
-      <c r="X84" s="71"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="73"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="73"/>
+      <c r="R84" s="73"/>
+      <c r="S84" s="73"/>
+      <c r="T84" s="73"/>
+      <c r="U84" s="73"/>
+      <c r="V84" s="73"/>
+      <c r="W84" s="73"/>
+      <c r="X84" s="73"/>
     </row>
     <row r="85" spans="1:24" s="14" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
@@ -3989,32 +3995,32 @@
       <c r="X90" s="5"/>
     </row>
     <row r="91" spans="1:24" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="71" t="s">
+      <c r="A91" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
-      <c r="L91" s="71"/>
-      <c r="M91" s="71"/>
-      <c r="N91" s="71"/>
-      <c r="O91" s="71"/>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="71"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="71"/>
-      <c r="T91" s="71"/>
-      <c r="U91" s="71"/>
-      <c r="V91" s="71"/>
-      <c r="W91" s="71"/>
-      <c r="X91" s="71"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
+      <c r="K91" s="73"/>
+      <c r="L91" s="73"/>
+      <c r="M91" s="73"/>
+      <c r="N91" s="73"/>
+      <c r="O91" s="73"/>
+      <c r="P91" s="73"/>
+      <c r="Q91" s="73"/>
+      <c r="R91" s="73"/>
+      <c r="S91" s="73"/>
+      <c r="T91" s="73"/>
+      <c r="U91" s="73"/>
+      <c r="V91" s="73"/>
+      <c r="W91" s="73"/>
+      <c r="X91" s="73"/>
     </row>
     <row r="92" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
@@ -4228,18 +4234,18 @@
       <c r="A100" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B100" s="78" t="s">
+      <c r="B100" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="78"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="78"/>
-      <c r="I100" s="78"/>
-      <c r="J100" s="78"/>
-      <c r="K100" s="78"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="80"/>
+      <c r="H100" s="80"/>
+      <c r="I100" s="80"/>
+      <c r="J100" s="80"/>
+      <c r="K100" s="80"/>
       <c r="N100" s="17" t="s">
         <v>130</v>
       </c>
@@ -4253,16 +4259,16 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="78"/>
-      <c r="H101" s="78"/>
-      <c r="I101" s="78"/>
-      <c r="J101" s="78"/>
-      <c r="K101" s="78"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="80"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
+      <c r="G101" s="80"/>
+      <c r="H101" s="80"/>
+      <c r="I101" s="80"/>
+      <c r="J101" s="80"/>
+      <c r="K101" s="80"/>
       <c r="N101" s="17" t="s">
         <v>133</v>
       </c>
@@ -4279,25 +4285,25 @@
       <c r="A102" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="74" t="s">
+      <c r="B102" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="75"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="75"/>
-      <c r="H102" s="75"/>
-      <c r="I102" s="75"/>
-      <c r="J102" s="75"/>
-      <c r="K102" s="75"/>
-      <c r="L102" s="75"/>
-      <c r="M102" s="75"/>
-      <c r="N102" s="75"/>
-      <c r="O102" s="75"/>
-      <c r="P102" s="75"/>
-      <c r="Q102" s="75"/>
-      <c r="R102" s="76"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="77"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
+      <c r="Q102" s="77"/>
+      <c r="R102" s="78"/>
       <c r="S102" s="56"/>
       <c r="T102" s="57"/>
       <c r="U102" s="57"/>
@@ -4345,27 +4351,27 @@
       <c r="B104" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="67"/>
-      <c r="J104" s="67"/>
-      <c r="K104" s="67"/>
-      <c r="L104" s="67"/>
-      <c r="M104" s="67"/>
-      <c r="N104" s="67"/>
-      <c r="O104" s="67"/>
-      <c r="P104" s="67"/>
-      <c r="Q104" s="67"/>
-      <c r="R104" s="67"/>
-      <c r="S104" s="67"/>
-      <c r="T104" s="67"/>
-      <c r="U104" s="67"/>
-      <c r="V104" s="67"/>
-      <c r="W104" s="67"/>
-      <c r="X104" s="67"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="69"/>
+      <c r="J104" s="69"/>
+      <c r="K104" s="69"/>
+      <c r="L104" s="69"/>
+      <c r="M104" s="69"/>
+      <c r="N104" s="69"/>
+      <c r="O104" s="69"/>
+      <c r="P104" s="69"/>
+      <c r="Q104" s="69"/>
+      <c r="R104" s="69"/>
+      <c r="S104" s="69"/>
+      <c r="T104" s="69"/>
+      <c r="U104" s="69"/>
+      <c r="V104" s="69"/>
+      <c r="W104" s="69"/>
+      <c r="X104" s="69"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
@@ -4568,14 +4574,14 @@
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113" s="24"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
-      <c r="L113" s="67"/>
-      <c r="M113" s="67"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="69"/>
+      <c r="J113" s="69"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="69"/>
+      <c r="M113" s="69"/>
       <c r="N113" s="13" t="s">
         <v>69</v>
       </c>
@@ -4828,14 +4834,14 @@
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="24"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="67"/>
-      <c r="K122" s="67"/>
-      <c r="L122" s="67"/>
-      <c r="M122" s="67"/>
+      <c r="F122" s="69"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="69"/>
+      <c r="I122" s="69"/>
+      <c r="J122" s="69"/>
+      <c r="K122" s="69"/>
+      <c r="L122" s="69"/>
+      <c r="M122" s="69"/>
       <c r="N122" s="13" t="s">
         <v>69</v>
       </c>
@@ -4958,32 +4964,32 @@
       <c r="V126" s="54"/>
     </row>
     <row r="127" spans="1:24" ht="12" x14ac:dyDescent="0.2">
-      <c r="A127" s="71" t="s">
+      <c r="A127" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="B127" s="71"/>
-      <c r="C127" s="71"/>
-      <c r="D127" s="71"/>
-      <c r="E127" s="71"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="71"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="71"/>
-      <c r="J127" s="71"/>
-      <c r="K127" s="71"/>
-      <c r="L127" s="71"/>
-      <c r="M127" s="71"/>
-      <c r="N127" s="71"/>
-      <c r="O127" s="71"/>
-      <c r="P127" s="71"/>
-      <c r="Q127" s="71"/>
-      <c r="R127" s="71"/>
-      <c r="S127" s="71"/>
-      <c r="T127" s="71"/>
-      <c r="U127" s="71"/>
-      <c r="V127" s="71"/>
-      <c r="W127" s="71"/>
-      <c r="X127" s="71"/>
+      <c r="B127" s="73"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="73"/>
+      <c r="E127" s="73"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="73"/>
+      <c r="H127" s="73"/>
+      <c r="I127" s="73"/>
+      <c r="J127" s="73"/>
+      <c r="K127" s="73"/>
+      <c r="L127" s="73"/>
+      <c r="M127" s="73"/>
+      <c r="N127" s="73"/>
+      <c r="O127" s="73"/>
+      <c r="P127" s="73"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="73"/>
+      <c r="S127" s="73"/>
+      <c r="T127" s="73"/>
+      <c r="U127" s="73"/>
+      <c r="V127" s="73"/>
+      <c r="W127" s="73"/>
+      <c r="X127" s="73"/>
     </row>
     <row r="128" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="54"/>
@@ -5129,31 +5135,31 @@
     </row>
     <row r="133" spans="1:24" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
-      <c r="B133" s="72" t="s">
+      <c r="B133" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C133" s="72"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="72"/>
-      <c r="L133" s="72"/>
-      <c r="M133" s="72"/>
-      <c r="N133" s="72"/>
-      <c r="O133" s="72"/>
-      <c r="P133" s="72"/>
-      <c r="Q133" s="72"/>
-      <c r="R133" s="72"/>
-      <c r="S133" s="72"/>
-      <c r="T133" s="72"/>
-      <c r="U133" s="72"/>
-      <c r="V133" s="72"/>
-      <c r="W133" s="72"/>
-      <c r="X133" s="72"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="74"/>
+      <c r="G133" s="74"/>
+      <c r="H133" s="74"/>
+      <c r="I133" s="74"/>
+      <c r="J133" s="74"/>
+      <c r="K133" s="74"/>
+      <c r="L133" s="74"/>
+      <c r="M133" s="74"/>
+      <c r="N133" s="74"/>
+      <c r="O133" s="74"/>
+      <c r="P133" s="74"/>
+      <c r="Q133" s="74"/>
+      <c r="R133" s="74"/>
+      <c r="S133" s="74"/>
+      <c r="T133" s="74"/>
+      <c r="U133" s="74"/>
+      <c r="V133" s="74"/>
+      <c r="W133" s="74"/>
+      <c r="X133" s="74"/>
     </row>
     <row r="134" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -5212,31 +5218,31 @@
     </row>
     <row r="136" spans="1:24" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
-      <c r="B136" s="72" t="s">
+      <c r="B136" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="72"/>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="72"/>
-      <c r="H136" s="72"/>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
-      <c r="L136" s="72"/>
-      <c r="M136" s="72"/>
-      <c r="N136" s="72"/>
-      <c r="O136" s="72"/>
-      <c r="P136" s="72"/>
-      <c r="Q136" s="72"/>
-      <c r="R136" s="72"/>
-      <c r="S136" s="72"/>
-      <c r="T136" s="72"/>
-      <c r="U136" s="72"/>
-      <c r="V136" s="72"/>
-      <c r="W136" s="72"/>
-      <c r="X136" s="72"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="74"/>
+      <c r="I136" s="74"/>
+      <c r="J136" s="74"/>
+      <c r="K136" s="74"/>
+      <c r="L136" s="74"/>
+      <c r="M136" s="74"/>
+      <c r="N136" s="74"/>
+      <c r="O136" s="74"/>
+      <c r="P136" s="74"/>
+      <c r="Q136" s="74"/>
+      <c r="R136" s="74"/>
+      <c r="S136" s="74"/>
+      <c r="T136" s="74"/>
+      <c r="U136" s="74"/>
+      <c r="V136" s="74"/>
+      <c r="W136" s="74"/>
+      <c r="X136" s="74"/>
     </row>
     <row r="137" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
@@ -5571,7 +5577,7 @@
       <c r="X153" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="B102:R102"/>
     <mergeCell ref="D104:X104"/>
     <mergeCell ref="B73:X73"/>
@@ -5595,6 +5601,7 @@
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A13:X13"/>
     <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B68:X68"/>
     <mergeCell ref="D35:X35"/>
     <mergeCell ref="N26:X26"/>
     <mergeCell ref="B25:L25"/>

--- a/GenerateZaFoms/Template/ZaPolis.xlsx
+++ b/GenerateZaFoms/Template/ZaPolis.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClientOms\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
   </bookViews>
@@ -1191,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1281,9 +1286,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1340,20 +1342,31 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1361,24 +1374,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1390,6 +1392,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1438,7 +1443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1473,7 +1478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1684,17 +1689,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="4.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="17" customWidth="1"/>
-    <col min="8" max="24" width="4.42578125" style="17" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="6" width="4.453125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.453125" style="17" customWidth="1"/>
+    <col min="8" max="24" width="4.453125" style="17" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="14" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1703,25 +1708,25 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-    </row>
-    <row r="2" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="48"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+    </row>
+    <row r="2" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1748,7 +1753,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1760,22 +1765,22 @@
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-    </row>
-    <row r="4" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+    </row>
+    <row r="4" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1802,91 +1807,91 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" s="14" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:24" s="14" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-    </row>
-    <row r="6" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+    </row>
+    <row r="6" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-    </row>
-    <row r="7" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+    </row>
+    <row r="7" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-    </row>
-    <row r="8" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+    </row>
+    <row r="8" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1913,7 +1918,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>53</v>
       </c>
@@ -1940,7 +1945,7 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
     </row>
-    <row r="10" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="11" t="s">
         <v>54</v>
@@ -1968,7 +1973,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="11" t="s">
         <v>55</v>
@@ -1996,7 +2001,7 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
     </row>
-    <row r="12" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="11" t="s">
         <v>56</v>
@@ -2024,35 +2029,35 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
     </row>
-    <row r="13" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
+    <row r="13" spans="1:24" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-    </row>
-    <row r="14" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+    </row>
+    <row r="14" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
@@ -2060,24 +2065,24 @@
         <v>6</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -2086,7 +2091,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:24" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
@@ -2113,7 +2118,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -2123,12 +2128,12 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -2136,7 +2141,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2161,7 +2166,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
@@ -2191,7 +2196,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
@@ -2220,63 +2225,63 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="68" t="s">
+    <row r="20" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="N20" s="68" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="N20" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-    </row>
-    <row r="21" spans="1:24" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="68" t="s">
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+    </row>
+    <row r="21" spans="1:24" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="N21" s="68" t="s">
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="N21" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-    </row>
-    <row r="22" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+    </row>
+    <row r="22" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
@@ -2305,35 +2310,35 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="68" t="s">
+    <row r="23" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="N23" s="68" t="s">
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="N23" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-    </row>
-    <row r="24" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+    </row>
+    <row r="24" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
@@ -2362,91 +2367,91 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="68" t="s">
+    <row r="25" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="N25" s="68" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="N25" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-    </row>
-    <row r="26" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+    </row>
+    <row r="26" spans="1:24" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="N26" s="68" t="s">
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="N26" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-    </row>
-    <row r="27" spans="1:24" s="14" customFormat="1" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="75" t="s">
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+    </row>
+    <row r="27" spans="1:24" s="14" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="75"/>
-    </row>
-    <row r="28" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+    </row>
+    <row r="28" spans="1:24" s="14" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2463,17 +2468,17 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="48" t="s">
+      <c r="R28" s="45"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="47" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X28" s="47"/>
+    </row>
+    <row r="29" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>183</v>
       </c>
@@ -2500,9 +2505,9 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
@@ -2511,7 +2516,7 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="30" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
         <v>16</v>
       </c>
@@ -2536,7 +2541,7 @@
       <c r="W30" s="19"/>
       <c r="X30" s="21"/>
     </row>
-    <row r="31" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>36</v>
       </c>
@@ -2545,28 +2550,28 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-    </row>
-    <row r="32" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="62"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+    </row>
+    <row r="32" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2592,7 +2597,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>39</v>
       </c>
@@ -2605,10 +2610,10 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
@@ -2622,64 +2627,64 @@
       <c r="W33" s="22"/>
       <c r="X33" s="22"/>
     </row>
-    <row r="34" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="50"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="49"/>
       <c r="G34" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H34" s="12"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
       <c r="N34" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O34" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R34" s="61"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-    </row>
-    <row r="35" spans="1:24" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R34" s="60"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+    </row>
+    <row r="35" spans="1:24" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-    </row>
-    <row r="36" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+    </row>
+    <row r="36" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
         <v>46</v>
       </c>
@@ -2687,29 +2692,29 @@
         <v>47</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-    </row>
-    <row r="37" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+    </row>
+    <row r="37" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2736,7 +2741,7 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
     </row>
-    <row r="38" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="12" t="s">
         <v>63</v>
@@ -2764,17 +2769,17 @@
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-    </row>
-    <row r="40" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P39" s="50"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+    </row>
+    <row r="40" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2801,7 +2806,7 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
     </row>
-    <row r="41" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="11" t="s">
         <v>66</v>
@@ -2809,29 +2814,29 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
       <c r="N41" s="11" t="s">
         <v>67</v>
       </c>
       <c r="O41" s="6"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-    </row>
-    <row r="42" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+    </row>
+    <row r="42" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
         <v>68</v>
@@ -2839,29 +2844,29 @@
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
       <c r="N42" s="13" t="s">
         <v>69</v>
       </c>
       <c r="O42" s="25"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-    </row>
-    <row r="43" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P42" s="41"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+    </row>
+    <row r="43" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2890,7 +2895,7 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
         <v>72</v>
@@ -2898,31 +2903,31 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
       <c r="J44" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
       <c r="Q44" s="10" t="s">
         <v>74</v>
       </c>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="49"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
     </row>
-    <row r="45" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="12" t="s">
         <v>75</v>
@@ -2933,24 +2938,24 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
     </row>
-    <row r="46" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="12" t="s">
@@ -2978,7 +2983,7 @@
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
     </row>
-    <row r="47" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>76</v>
       </c>
@@ -3008,7 +3013,7 @@
       <c r="W47" s="14"/>
       <c r="X47" s="14"/>
     </row>
-    <row r="48" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="12" t="s">
         <v>63</v>
@@ -3028,17 +3033,17 @@
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="50"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="50"/>
-      <c r="X48" s="50"/>
-    </row>
-    <row r="49" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P48" s="50"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+    </row>
+    <row r="49" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -3065,7 +3070,7 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
     </row>
-    <row r="50" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="11" t="s">
         <v>66</v>
@@ -3073,29 +3078,29 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
       <c r="N50" s="11" t="s">
         <v>67</v>
       </c>
       <c r="O50" s="6"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="41"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="41"/>
-    </row>
-    <row r="51" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+    </row>
+    <row r="51" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>68</v>
@@ -3103,29 +3108,29 @@
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
       <c r="N51" s="13" t="s">
         <v>69</v>
       </c>
       <c r="O51" s="25"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-    </row>
-    <row r="52" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P51" s="41"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+    </row>
+    <row r="52" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3154,7 +3159,7 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
         <v>72</v>
@@ -3162,31 +3167,31 @@
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
       <c r="J53" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
-      <c r="P53" s="49"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
       <c r="Q53" s="10" t="s">
         <v>74</v>
       </c>
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
     </row>
-    <row r="54" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>77</v>
       </c>
@@ -3216,24 +3221,24 @@
       <c r="W54" s="23"/>
       <c r="X54" s="23"/>
     </row>
-    <row r="55" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
       <c r="R55" s="14"/>
@@ -3244,144 +3249,144 @@
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
     </row>
-    <row r="56" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C56" s="14"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L56" s="14"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
       <c r="T56" s="20"/>
       <c r="U56" s="14"/>
       <c r="V56" s="14"/>
       <c r="W56" s="14"/>
       <c r="X56" s="14"/>
     </row>
-    <row r="57" spans="1:24" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="15"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70"/>
-      <c r="S57" s="70"/>
-      <c r="T57" s="70"/>
-      <c r="U57" s="70"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-    </row>
-    <row r="58" spans="1:24" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="79"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="79"/>
+      <c r="U57" s="79"/>
+      <c r="V57" s="79"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+    </row>
+    <row r="58" spans="1:24" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="15"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="69"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="69"/>
-      <c r="W58" s="69"/>
-      <c r="X58" s="69"/>
-    </row>
-    <row r="59" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="65" t="s">
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+    </row>
+    <row r="59" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="72"/>
+      <c r="S59" s="72"/>
+      <c r="T59" s="72"/>
+      <c r="U59" s="72"/>
+      <c r="V59" s="72"/>
+      <c r="W59" s="72"/>
+      <c r="X59" s="72"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
       <c r="L60" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
       <c r="T60" s="27"/>
       <c r="U60" s="27"/>
       <c r="V60" s="27"/>
       <c r="W60" s="27"/>
       <c r="X60" s="27"/>
     </row>
-    <row r="61" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3410,7 +3415,7 @@
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="9.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>89</v>
       </c>
@@ -3440,41 +3445,41 @@
       <c r="W62" s="27"/>
       <c r="X62" s="27"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="29"/>
       <c r="H63" s="27" t="s">
         <v>92</v>
       </c>
       <c r="I63" s="27"/>
       <c r="J63" s="27"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
       <c r="O63" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
       <c r="S63" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52"/>
       <c r="W63" s="27"/>
       <c r="X63" s="27"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="27" t="s">
         <v>94</v>
@@ -3484,140 +3489,141 @@
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53"/>
-      <c r="R64" s="53"/>
-      <c r="S64" s="53"/>
-      <c r="T64" s="53"/>
-      <c r="U64" s="53"/>
-      <c r="V64" s="53"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
       <c r="W64" s="27"/>
       <c r="X64" s="27"/>
     </row>
-    <row r="65" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="65" t="s">
+    <row r="65" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="68"/>
-      <c r="S65" s="68"/>
-      <c r="T65" s="68"/>
-      <c r="U65" s="68"/>
-      <c r="V65" s="68"/>
-      <c r="W65" s="68"/>
-      <c r="X65" s="68"/>
-    </row>
-    <row r="66" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="72"/>
+      <c r="P65" s="72"/>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="72"/>
+      <c r="S65" s="72"/>
+      <c r="T65" s="72"/>
+      <c r="U65" s="72"/>
+      <c r="V65" s="72"/>
+      <c r="W65" s="72"/>
+      <c r="X65" s="72"/>
+    </row>
+    <row r="66" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C66" s="14"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
       <c r="J66" s="14"/>
       <c r="K66" s="12" t="s">
         <v>98</v>
       </c>
       <c r="L66" s="14"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
       <c r="T66" s="14"/>
       <c r="U66" s="14"/>
       <c r="V66" s="14"/>
       <c r="W66" s="14"/>
       <c r="X66" s="14"/>
     </row>
-    <row r="67" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65" t="s">
+    <row r="67" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="68" t="s">
+      <c r="B67" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="68"/>
-      <c r="N67" s="68"/>
-      <c r="O67" s="68"/>
-      <c r="P67" s="68"/>
-      <c r="Q67" s="68"/>
-      <c r="R67" s="68"/>
-      <c r="S67" s="68"/>
-      <c r="T67" s="68"/>
-      <c r="U67" s="68"/>
-      <c r="V67" s="68"/>
-      <c r="W67" s="68"/>
-      <c r="X67" s="68"/>
-    </row>
-    <row r="68" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="66"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="72"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="72"/>
+    </row>
+    <row r="68" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="77"/>
+      <c r="T68" s="77"/>
+      <c r="U68" s="77"/>
+      <c r="V68" s="77"/>
+      <c r="W68" s="77"/>
+      <c r="X68" s="77"/>
+    </row>
+    <row r="71" spans="1:24" ht="5.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>101</v>
       </c>
@@ -3625,66 +3631,66 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:24" s="14" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" s="14" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
-      <c r="R73" s="79"/>
-      <c r="S73" s="79"/>
-      <c r="T73" s="79"/>
-      <c r="U73" s="79"/>
-      <c r="V73" s="79"/>
-      <c r="W73" s="79"/>
-      <c r="X73" s="79"/>
-    </row>
-    <row r="74" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="69"/>
+      <c r="V73" s="69"/>
+      <c r="W73" s="69"/>
+      <c r="X73" s="69"/>
+    </row>
+    <row r="74" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O74" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="P74" s="53"/>
-      <c r="Q74" s="53"/>
-      <c r="R74" s="53"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="52"/>
       <c r="S74" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="T74" s="53"/>
-      <c r="U74" s="53"/>
-      <c r="V74" s="53"/>
-    </row>
-    <row r="75" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T74" s="52"/>
+      <c r="U74" s="52"/>
+      <c r="V74" s="52"/>
+    </row>
+    <row r="75" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>103</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="54"/>
-      <c r="T75" s="54"/>
-      <c r="U75" s="54"/>
-      <c r="V75" s="54"/>
-      <c r="W75" s="54"/>
-      <c r="X75" s="54"/>
-    </row>
-    <row r="76" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N75" s="53"/>
+      <c r="O75" s="53"/>
+      <c r="P75" s="53"/>
+      <c r="Q75" s="53"/>
+      <c r="R75" s="53"/>
+      <c r="S75" s="53"/>
+      <c r="T75" s="53"/>
+      <c r="U75" s="53"/>
+      <c r="V75" s="53"/>
+      <c r="W75" s="53"/>
+      <c r="X75" s="53"/>
+    </row>
+    <row r="76" spans="1:24" ht="11.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>105</v>
       </c>
@@ -3692,58 +3698,58 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
       <c r="K77" s="17" t="s">
         <v>109</v>
       </c>
       <c r="L77" s="14"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="53"/>
+      <c r="O77" s="53"/>
+      <c r="P77" s="53"/>
       <c r="Q77" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
-      <c r="V77" s="54"/>
-    </row>
-    <row r="78" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S77" s="53"/>
+      <c r="T77" s="53"/>
+      <c r="U77" s="53"/>
+      <c r="V77" s="53"/>
+    </row>
+    <row r="78" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="64"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="54"/>
-      <c r="V78" s="54"/>
-    </row>
-    <row r="79" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G78" s="63"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="53"/>
+      <c r="R78" s="53"/>
+      <c r="S78" s="53"/>
+      <c r="T78" s="53"/>
+      <c r="U78" s="53"/>
+      <c r="V78" s="53"/>
+    </row>
+    <row r="79" spans="1:24" ht="11.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>113</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" ht="10.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="17" t="s">
         <v>115</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="10.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="17" t="s">
         <v>117</v>
       </c>
@@ -3769,63 +3775,63 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="80" t="s">
+    <row r="82" spans="1:24" ht="10.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
-      <c r="H82" s="80"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="80"/>
-      <c r="K82" s="80"/>
-      <c r="L82" s="80"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="70"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="70"/>
+      <c r="L82" s="70"/>
       <c r="O82" s="32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O83" s="54"/>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
-      <c r="S83" s="54"/>
-      <c r="T83" s="54"/>
-      <c r="U83" s="54"/>
-      <c r="V83" s="54"/>
-    </row>
-    <row r="84" spans="1:24" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="73" t="s">
+    <row r="83" spans="1:24" ht="11.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="53"/>
+      <c r="P83" s="53"/>
+      <c r="Q83" s="53"/>
+      <c r="R83" s="53"/>
+      <c r="S83" s="53"/>
+      <c r="T83" s="53"/>
+      <c r="U83" s="53"/>
+      <c r="V83" s="53"/>
+    </row>
+    <row r="84" spans="1:24" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="73"/>
-      <c r="K84" s="73"/>
-      <c r="L84" s="73"/>
-      <c r="M84" s="73"/>
-      <c r="N84" s="73"/>
-      <c r="O84" s="73"/>
-      <c r="P84" s="73"/>
-      <c r="Q84" s="73"/>
-      <c r="R84" s="73"/>
-      <c r="S84" s="73"/>
-      <c r="T84" s="73"/>
-      <c r="U84" s="73"/>
-      <c r="V84" s="73"/>
-      <c r="W84" s="73"/>
-      <c r="X84" s="73"/>
-    </row>
-    <row r="85" spans="1:24" s="14" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="71"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71"/>
+      <c r="R84" s="71"/>
+      <c r="S84" s="71"/>
+      <c r="T84" s="71"/>
+      <c r="U84" s="71"/>
+      <c r="V84" s="71"/>
+      <c r="W84" s="71"/>
+      <c r="X84" s="71"/>
+    </row>
+    <row r="85" spans="1:24" s="14" customFormat="1" ht="10.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>122</v>
       </c>
@@ -3833,24 +3839,24 @@
         <v>6</v>
       </c>
       <c r="C85" s="8"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
       <c r="J85" s="7" t="s">
         <v>123</v>
       </c>
       <c r="K85" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L85" s="55"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="55"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="54"/>
+      <c r="Q85" s="54"/>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
@@ -3859,7 +3865,7 @@
       <c r="W85" s="8"/>
       <c r="X85" s="8"/>
     </row>
-    <row r="86" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
@@ -3885,7 +3891,7 @@
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="1:24" s="14" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" s="14" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>124</v>
       </c>
@@ -3895,12 +3901,12 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
@@ -3908,7 +3914,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3929,7 +3935,7 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" s="14" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>126</v>
       </c>
@@ -3954,9 +3960,9 @@
       </c>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
-      <c r="N89" s="49"/>
-      <c r="O89" s="49"/>
-      <c r="P89" s="49"/>
+      <c r="N89" s="48"/>
+      <c r="O89" s="48"/>
+      <c r="P89" s="48"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="17"/>
       <c r="S89" s="17"/>
@@ -3966,7 +3972,7 @@
       <c r="W89" s="17"/>
       <c r="X89" s="17"/>
     </row>
-    <row r="90" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3994,35 +4000,35 @@
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
     </row>
-    <row r="91" spans="1:24" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="73" t="s">
+    <row r="91" spans="1:24" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="73"/>
-      <c r="C91" s="73"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="73"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
-      <c r="K91" s="73"/>
-      <c r="L91" s="73"/>
-      <c r="M91" s="73"/>
-      <c r="N91" s="73"/>
-      <c r="O91" s="73"/>
-      <c r="P91" s="73"/>
-      <c r="Q91" s="73"/>
-      <c r="R91" s="73"/>
-      <c r="S91" s="73"/>
-      <c r="T91" s="73"/>
-      <c r="U91" s="73"/>
-      <c r="V91" s="73"/>
-      <c r="W91" s="73"/>
-      <c r="X91" s="73"/>
-    </row>
-    <row r="92" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
+      <c r="K91" s="71"/>
+      <c r="L91" s="71"/>
+      <c r="M91" s="71"/>
+      <c r="N91" s="71"/>
+      <c r="O91" s="71"/>
+      <c r="P91" s="71"/>
+      <c r="Q91" s="71"/>
+      <c r="R91" s="71"/>
+      <c r="S91" s="71"/>
+      <c r="T91" s="71"/>
+      <c r="U91" s="71"/>
+      <c r="V91" s="71"/>
+      <c r="W91" s="71"/>
+      <c r="X91" s="71"/>
+    </row>
+    <row r="92" spans="1:24" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>142</v>
       </c>
@@ -4030,24 +4036,24 @@
         <v>6</v>
       </c>
       <c r="C92" s="8"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
       <c r="J92" s="7" t="s">
         <v>143</v>
       </c>
       <c r="K92" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L92" s="55"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="54"/>
+      <c r="N92" s="54"/>
+      <c r="O92" s="54"/>
+      <c r="P92" s="54"/>
+      <c r="Q92" s="54"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -4056,7 +4062,7 @@
       <c r="W92" s="8"/>
       <c r="X92" s="8"/>
     </row>
-    <row r="93" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="D93" s="5" t="s">
         <v>15</v>
@@ -4077,7 +4083,7 @@
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
     </row>
-    <row r="94" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>144</v>
       </c>
@@ -4087,12 +4093,12 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="45"/>
-      <c r="K94" s="45"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
       <c r="N94" s="14"/>
@@ -4107,7 +4113,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -4128,7 +4134,7 @@
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
     </row>
-    <row r="96" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>145</v>
       </c>
@@ -4150,11 +4156,11 @@
       </c>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
-      <c r="N96" s="49"/>
-      <c r="O96" s="49"/>
-      <c r="P96" s="49"/>
-    </row>
-    <row r="97" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N96" s="48"/>
+      <c r="O96" s="48"/>
+      <c r="P96" s="48"/>
+    </row>
+    <row r="97" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
       <c r="C97" s="36" t="s">
         <v>16</v>
@@ -4179,7 +4185,7 @@
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
     </row>
-    <row r="98" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>147</v>
       </c>
@@ -4188,28 +4194,28 @@
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="50"/>
-      <c r="O98" s="50"/>
-      <c r="P98" s="50"/>
-      <c r="Q98" s="50"/>
-      <c r="R98" s="50"/>
-      <c r="S98" s="50"/>
-      <c r="T98" s="50"/>
-      <c r="U98" s="50"/>
-      <c r="V98" s="50"/>
-      <c r="W98" s="50"/>
-      <c r="X98" s="50"/>
-    </row>
-    <row r="99" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E98" s="48"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="49"/>
+      <c r="R98" s="49"/>
+      <c r="S98" s="49"/>
+      <c r="T98" s="49"/>
+      <c r="U98" s="49"/>
+      <c r="V98" s="49"/>
+      <c r="W98" s="49"/>
+      <c r="X98" s="49"/>
+    </row>
+    <row r="99" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4230,22 +4236,22 @@
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
     </row>
-    <row r="100" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B100" s="80" t="s">
+      <c r="B100" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="80"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="80"/>
-      <c r="H100" s="80"/>
-      <c r="I100" s="80"/>
-      <c r="J100" s="80"/>
-      <c r="K100" s="80"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
       <c r="N100" s="17" t="s">
         <v>130</v>
       </c>
@@ -4258,17 +4264,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B101" s="80"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="80"/>
-      <c r="E101" s="80"/>
-      <c r="F101" s="80"/>
-      <c r="G101" s="80"/>
-      <c r="H101" s="80"/>
-      <c r="I101" s="80"/>
-      <c r="J101" s="80"/>
-      <c r="K101" s="80"/>
+    <row r="101" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="70"/>
       <c r="N101" s="17" t="s">
         <v>133</v>
       </c>
@@ -4281,37 +4287,37 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="76" t="s">
+      <c r="B102" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
-      <c r="K102" s="77"/>
-      <c r="L102" s="77"/>
-      <c r="M102" s="77"/>
-      <c r="N102" s="77"/>
-      <c r="O102" s="77"/>
-      <c r="P102" s="77"/>
-      <c r="Q102" s="77"/>
-      <c r="R102" s="78"/>
-      <c r="S102" s="56"/>
-      <c r="T102" s="57"/>
-      <c r="U102" s="57"/>
-      <c r="V102" s="57"/>
-      <c r="W102" s="57"/>
-      <c r="X102" s="57"/>
-    </row>
-    <row r="103" spans="1:24" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="66"/>
+      <c r="M102" s="66"/>
+      <c r="N102" s="66"/>
+      <c r="O102" s="66"/>
+      <c r="P102" s="66"/>
+      <c r="Q102" s="66"/>
+      <c r="R102" s="67"/>
+      <c r="S102" s="55"/>
+      <c r="T102" s="56"/>
+      <c r="U102" s="56"/>
+      <c r="V102" s="56"/>
+      <c r="W102" s="56"/>
+      <c r="X102" s="56"/>
+    </row>
+    <row r="103" spans="1:24" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>150</v>
       </c>
@@ -4319,17 +4325,17 @@
         <v>41</v>
       </c>
       <c r="C103" s="14"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="50"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="49"/>
       <c r="F103" s="14"/>
       <c r="G103" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H103" s="12"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
       <c r="M103" s="14"/>
       <c r="N103" s="7" t="s">
         <v>158</v>
@@ -4339,41 +4345,41 @@
       </c>
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
-      <c r="R103" s="49"/>
-      <c r="S103" s="50"/>
-      <c r="T103" s="50"/>
-      <c r="U103" s="50"/>
-      <c r="V103" s="50"/>
-      <c r="W103" s="50"/>
-      <c r="X103" s="50"/>
-    </row>
-    <row r="104" spans="1:24" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R103" s="48"/>
+      <c r="S103" s="49"/>
+      <c r="T103" s="49"/>
+      <c r="U103" s="49"/>
+      <c r="V103" s="49"/>
+      <c r="W103" s="49"/>
+      <c r="X103" s="49"/>
+    </row>
+    <row r="104" spans="1:24" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D104" s="69"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="69"/>
-      <c r="J104" s="69"/>
-      <c r="K104" s="69"/>
-      <c r="L104" s="69"/>
-      <c r="M104" s="69"/>
-      <c r="N104" s="69"/>
-      <c r="O104" s="69"/>
-      <c r="P104" s="69"/>
-      <c r="Q104" s="69"/>
-      <c r="R104" s="69"/>
-      <c r="S104" s="69"/>
-      <c r="T104" s="69"/>
-      <c r="U104" s="69"/>
-      <c r="V104" s="69"/>
-      <c r="W104" s="69"/>
-      <c r="X104" s="69"/>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D104" s="68"/>
+      <c r="E104" s="68"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="68"/>
+      <c r="I104" s="68"/>
+      <c r="J104" s="68"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="68"/>
+      <c r="M104" s="68"/>
+      <c r="N104" s="68"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="68"/>
+      <c r="Q104" s="68"/>
+      <c r="R104" s="68"/>
+      <c r="S104" s="68"/>
+      <c r="T104" s="68"/>
+      <c r="U104" s="68"/>
+      <c r="V104" s="68"/>
+      <c r="W104" s="68"/>
+      <c r="X104" s="68"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>151</v>
       </c>
@@ -4381,31 +4387,31 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C106" s="14"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="50"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="49"/>
       <c r="F106" s="14"/>
       <c r="G106" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H106" s="12"/>
-      <c r="I106" s="49"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="50"/>
-      <c r="L106" s="50"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="49"/>
       <c r="M106" s="14"/>
       <c r="N106" s="12" t="s">
         <v>44</v>
       </c>
       <c r="O106" s="7"/>
       <c r="P106" s="20"/>
-      <c r="Q106" s="49"/>
-      <c r="R106" s="49"/>
-      <c r="S106" s="50"/>
+      <c r="Q106" s="48"/>
+      <c r="R106" s="48"/>
+      <c r="S106" s="49"/>
       <c r="T106" s="12" t="s">
         <v>38</v>
       </c>
@@ -4414,7 +4420,7 @@
       <c r="W106" s="20"/>
       <c r="X106" s="20"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>152</v>
       </c>
@@ -4422,18 +4428,18 @@
         <v>104</v>
       </c>
       <c r="N107" s="34"/>
-      <c r="O107" s="54"/>
-      <c r="P107" s="54"/>
-      <c r="Q107" s="54"/>
-      <c r="R107" s="54"/>
-      <c r="S107" s="54"/>
-      <c r="T107" s="54"/>
-      <c r="U107" s="54"/>
-      <c r="V107" s="54"/>
-      <c r="W107" s="54"/>
-      <c r="X107" s="54"/>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O107" s="53"/>
+      <c r="P107" s="53"/>
+      <c r="Q107" s="53"/>
+      <c r="R107" s="53"/>
+      <c r="S107" s="53"/>
+      <c r="T107" s="53"/>
+      <c r="U107" s="53"/>
+      <c r="V107" s="53"/>
+      <c r="W107" s="53"/>
+      <c r="X107" s="53"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>153</v>
       </c>
@@ -4441,20 +4447,20 @@
         <v>138</v>
       </c>
       <c r="L108" s="34"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="54"/>
-      <c r="P108" s="54"/>
-      <c r="Q108" s="54"/>
-      <c r="R108" s="54"/>
-      <c r="S108" s="54"/>
-      <c r="T108" s="54"/>
-      <c r="U108" s="54"/>
-      <c r="V108" s="54"/>
-      <c r="W108" s="54"/>
-      <c r="X108" s="54"/>
-    </row>
-    <row r="109" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M108" s="53"/>
+      <c r="N108" s="53"/>
+      <c r="O108" s="53"/>
+      <c r="P108" s="53"/>
+      <c r="Q108" s="53"/>
+      <c r="R108" s="53"/>
+      <c r="S108" s="53"/>
+      <c r="T108" s="53"/>
+      <c r="U108" s="53"/>
+      <c r="V108" s="53"/>
+      <c r="W108" s="53"/>
+      <c r="X108" s="53"/>
+    </row>
+    <row r="109" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>154</v>
       </c>
@@ -4484,7 +4490,7 @@
       <c r="W109" s="14"/>
       <c r="X109" s="14"/>
     </row>
-    <row r="110" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="12" t="s">
         <v>63</v>
@@ -4504,17 +4510,17 @@
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
-      <c r="P110" s="51"/>
-      <c r="Q110" s="50"/>
-      <c r="R110" s="50"/>
-      <c r="S110" s="50"/>
-      <c r="T110" s="50"/>
-      <c r="U110" s="50"/>
-      <c r="V110" s="50"/>
-      <c r="W110" s="50"/>
-      <c r="X110" s="50"/>
-    </row>
-    <row r="111" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P110" s="50"/>
+      <c r="Q110" s="49"/>
+      <c r="R110" s="49"/>
+      <c r="S110" s="49"/>
+      <c r="T110" s="49"/>
+      <c r="U110" s="49"/>
+      <c r="V110" s="49"/>
+      <c r="W110" s="49"/>
+      <c r="X110" s="49"/>
+    </row>
+    <row r="111" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4536,37 +4542,37 @@
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
     </row>
-    <row r="112" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
       <c r="B112" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C112" s="14"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="50"/>
-      <c r="M112" s="50"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
       <c r="N112" s="35" t="s">
         <v>67</v>
       </c>
       <c r="O112" s="20"/>
-      <c r="P112" s="49"/>
-      <c r="Q112" s="50"/>
-      <c r="R112" s="50"/>
-      <c r="S112" s="50"/>
-      <c r="T112" s="50"/>
-      <c r="U112" s="50"/>
-      <c r="V112" s="50"/>
-      <c r="W112" s="50"/>
-      <c r="X112" s="50"/>
-    </row>
-    <row r="113" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P112" s="48"/>
+      <c r="Q112" s="49"/>
+      <c r="R112" s="49"/>
+      <c r="S112" s="49"/>
+      <c r="T112" s="49"/>
+      <c r="U112" s="49"/>
+      <c r="V112" s="49"/>
+      <c r="W112" s="49"/>
+      <c r="X112" s="49"/>
+    </row>
+    <row r="113" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="13" t="s">
         <v>68</v>
@@ -4574,29 +4580,29 @@
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113" s="24"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="69"/>
-      <c r="I113" s="69"/>
-      <c r="J113" s="69"/>
-      <c r="K113" s="69"/>
-      <c r="L113" s="69"/>
-      <c r="M113" s="69"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="68"/>
+      <c r="K113" s="68"/>
+      <c r="L113" s="68"/>
+      <c r="M113" s="68"/>
       <c r="N113" s="13" t="s">
         <v>69</v>
       </c>
       <c r="O113" s="25"/>
-      <c r="P113" s="42"/>
-      <c r="Q113" s="52"/>
-      <c r="R113" s="52"/>
-      <c r="S113" s="52"/>
-      <c r="T113" s="52"/>
-      <c r="U113" s="52"/>
-      <c r="V113" s="52"/>
-      <c r="W113" s="52"/>
-      <c r="X113" s="52"/>
-    </row>
-    <row r="114" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P113" s="41"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="51"/>
+      <c r="U113" s="51"/>
+      <c r="V113" s="51"/>
+      <c r="W113" s="51"/>
+      <c r="X113" s="51"/>
+    </row>
+    <row r="114" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4620,7 +4626,7 @@
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12" t="s">
         <v>72</v>
@@ -4628,31 +4634,31 @@
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="49"/>
-      <c r="I115" s="49"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="48"/>
       <c r="J115" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
-      <c r="N115" s="49"/>
-      <c r="O115" s="49"/>
-      <c r="P115" s="49"/>
+      <c r="N115" s="48"/>
+      <c r="O115" s="48"/>
+      <c r="P115" s="48"/>
       <c r="Q115" s="10" t="s">
         <v>74</v>
       </c>
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
-      <c r="T115" s="49"/>
-      <c r="U115" s="49"/>
-      <c r="V115" s="49"/>
+      <c r="T115" s="48"/>
+      <c r="U115" s="48"/>
+      <c r="V115" s="48"/>
       <c r="W115" s="12"/>
       <c r="X115" s="12"/>
     </row>
-    <row r="116" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="12" t="s">
         <v>75</v>
@@ -4663,24 +4669,24 @@
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
-      <c r="I116" s="49"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="50"/>
-      <c r="M116" s="50"/>
-      <c r="N116" s="50"/>
-      <c r="O116" s="50"/>
-      <c r="P116" s="50"/>
-      <c r="Q116" s="50"/>
-      <c r="R116" s="50"/>
-      <c r="S116" s="50"/>
-      <c r="T116" s="50"/>
-      <c r="U116" s="50"/>
-      <c r="V116" s="50"/>
+      <c r="I116" s="48"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="49"/>
+      <c r="P116" s="49"/>
+      <c r="Q116" s="49"/>
+      <c r="R116" s="49"/>
+      <c r="S116" s="49"/>
+      <c r="T116" s="49"/>
+      <c r="U116" s="49"/>
+      <c r="V116" s="49"/>
       <c r="W116" s="14"/>
       <c r="X116" s="14"/>
     </row>
-    <row r="117" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="12" t="s">
@@ -4708,7 +4714,7 @@
       <c r="W117" s="14"/>
       <c r="X117" s="14"/>
     </row>
-    <row r="118" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>155</v>
       </c>
@@ -4738,7 +4744,7 @@
       <c r="W118" s="14"/>
       <c r="X118" s="14"/>
     </row>
-    <row r="119" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
       <c r="B119" s="12" t="s">
         <v>63</v>
@@ -4758,17 +4764,17 @@
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
       <c r="O119" s="14"/>
-      <c r="P119" s="51"/>
-      <c r="Q119" s="50"/>
-      <c r="R119" s="50"/>
-      <c r="S119" s="50"/>
-      <c r="T119" s="50"/>
-      <c r="U119" s="50"/>
-      <c r="V119" s="50"/>
-      <c r="W119" s="50"/>
-      <c r="X119" s="50"/>
-    </row>
-    <row r="120" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P119" s="50"/>
+      <c r="Q119" s="49"/>
+      <c r="R119" s="49"/>
+      <c r="S119" s="49"/>
+      <c r="T119" s="49"/>
+      <c r="U119" s="49"/>
+      <c r="V119" s="49"/>
+      <c r="W119" s="49"/>
+      <c r="X119" s="49"/>
+    </row>
+    <row r="120" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4796,37 +4802,37 @@
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
     </row>
-    <row r="121" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12"/>
       <c r="B121" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C121" s="14"/>
-      <c r="D121" s="49"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
-      <c r="I121" s="50"/>
-      <c r="J121" s="50"/>
-      <c r="K121" s="50"/>
-      <c r="L121" s="50"/>
-      <c r="M121" s="50"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="49"/>
+      <c r="I121" s="49"/>
+      <c r="J121" s="49"/>
+      <c r="K121" s="49"/>
+      <c r="L121" s="49"/>
+      <c r="M121" s="49"/>
       <c r="N121" s="35" t="s">
         <v>67</v>
       </c>
       <c r="O121" s="20"/>
-      <c r="P121" s="49"/>
-      <c r="Q121" s="50"/>
-      <c r="R121" s="50"/>
-      <c r="S121" s="50"/>
-      <c r="T121" s="50"/>
-      <c r="U121" s="50"/>
-      <c r="V121" s="50"/>
-      <c r="W121" s="50"/>
-      <c r="X121" s="50"/>
-    </row>
-    <row r="122" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P121" s="48"/>
+      <c r="Q121" s="49"/>
+      <c r="R121" s="49"/>
+      <c r="S121" s="49"/>
+      <c r="T121" s="49"/>
+      <c r="U121" s="49"/>
+      <c r="V121" s="49"/>
+      <c r="W121" s="49"/>
+      <c r="X121" s="49"/>
+    </row>
+    <row r="122" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="13" t="s">
         <v>68</v>
@@ -4834,29 +4840,29 @@
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="24"/>
-      <c r="F122" s="69"/>
-      <c r="G122" s="69"/>
-      <c r="H122" s="69"/>
-      <c r="I122" s="69"/>
-      <c r="J122" s="69"/>
-      <c r="K122" s="69"/>
-      <c r="L122" s="69"/>
-      <c r="M122" s="69"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="68"/>
+      <c r="I122" s="68"/>
+      <c r="J122" s="68"/>
+      <c r="K122" s="68"/>
+      <c r="L122" s="68"/>
+      <c r="M122" s="68"/>
       <c r="N122" s="13" t="s">
         <v>69</v>
       </c>
       <c r="O122" s="25"/>
-      <c r="P122" s="42"/>
-      <c r="Q122" s="52"/>
-      <c r="R122" s="52"/>
-      <c r="S122" s="52"/>
-      <c r="T122" s="52"/>
-      <c r="U122" s="52"/>
-      <c r="V122" s="52"/>
-      <c r="W122" s="52"/>
-      <c r="X122" s="52"/>
-    </row>
-    <row r="123" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P122" s="41"/>
+      <c r="Q122" s="51"/>
+      <c r="R122" s="51"/>
+      <c r="S122" s="51"/>
+      <c r="T122" s="51"/>
+      <c r="U122" s="51"/>
+      <c r="V122" s="51"/>
+      <c r="W122" s="51"/>
+      <c r="X122" s="51"/>
+    </row>
+    <row r="123" spans="1:24" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -4880,7 +4886,7 @@
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12" t="s">
         <v>72</v>
@@ -4888,131 +4894,131 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
-      <c r="I124" s="49"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
       <c r="J124" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
-      <c r="N124" s="49"/>
-      <c r="O124" s="49"/>
-      <c r="P124" s="49"/>
+      <c r="N124" s="48"/>
+      <c r="O124" s="48"/>
+      <c r="P124" s="48"/>
       <c r="Q124" s="10" t="s">
         <v>74</v>
       </c>
       <c r="R124" s="12"/>
       <c r="S124" s="12"/>
-      <c r="T124" s="49"/>
-      <c r="U124" s="49"/>
-      <c r="V124" s="49"/>
+      <c r="T124" s="48"/>
+      <c r="U124" s="48"/>
+      <c r="V124" s="48"/>
       <c r="W124" s="12"/>
       <c r="X124" s="12"/>
     </row>
-    <row r="125" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A125" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="53"/>
+      <c r="I125" s="53"/>
+      <c r="J125" s="53"/>
       <c r="K125" s="17" t="s">
         <v>109</v>
       </c>
       <c r="L125" s="14"/>
-      <c r="M125" s="54"/>
-      <c r="N125" s="54"/>
-      <c r="O125" s="54"/>
-      <c r="P125" s="54"/>
+      <c r="M125" s="53"/>
+      <c r="N125" s="53"/>
+      <c r="O125" s="53"/>
+      <c r="P125" s="53"/>
       <c r="Q125" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="S125" s="54"/>
-      <c r="T125" s="54"/>
-      <c r="U125" s="54"/>
-      <c r="V125" s="54"/>
-    </row>
-    <row r="126" spans="1:24" ht="12" x14ac:dyDescent="0.2">
+      <c r="S125" s="53"/>
+      <c r="T125" s="53"/>
+      <c r="U125" s="53"/>
+      <c r="V125" s="53"/>
+    </row>
+    <row r="126" spans="1:24" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B126" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G126" s="64"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="54"/>
-      <c r="M126" s="54"/>
-      <c r="N126" s="54"/>
-      <c r="O126" s="54"/>
-      <c r="P126" s="54"/>
-      <c r="Q126" s="54"/>
-      <c r="R126" s="54"/>
-      <c r="S126" s="54"/>
-      <c r="T126" s="54"/>
-      <c r="U126" s="54"/>
-      <c r="V126" s="54"/>
-    </row>
-    <row r="127" spans="1:24" ht="12" x14ac:dyDescent="0.2">
-      <c r="A127" s="73" t="s">
+      <c r="G126" s="63"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
+      <c r="L126" s="53"/>
+      <c r="M126" s="53"/>
+      <c r="N126" s="53"/>
+      <c r="O126" s="53"/>
+      <c r="P126" s="53"/>
+      <c r="Q126" s="53"/>
+      <c r="R126" s="53"/>
+      <c r="S126" s="53"/>
+      <c r="T126" s="53"/>
+      <c r="U126" s="53"/>
+      <c r="V126" s="53"/>
+    </row>
+    <row r="127" spans="1:24" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="B127" s="73"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
-      <c r="H127" s="73"/>
-      <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
-      <c r="K127" s="73"/>
-      <c r="L127" s="73"/>
-      <c r="M127" s="73"/>
-      <c r="N127" s="73"/>
-      <c r="O127" s="73"/>
-      <c r="P127" s="73"/>
-      <c r="Q127" s="73"/>
-      <c r="R127" s="73"/>
-      <c r="S127" s="73"/>
-      <c r="T127" s="73"/>
-      <c r="U127" s="73"/>
-      <c r="V127" s="73"/>
-      <c r="W127" s="73"/>
-      <c r="X127" s="73"/>
-    </row>
-    <row r="128" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="54"/>
-      <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="54"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="71"/>
+      <c r="L127" s="71"/>
+      <c r="M127" s="71"/>
+      <c r="N127" s="71"/>
+      <c r="O127" s="71"/>
+      <c r="P127" s="71"/>
+      <c r="Q127" s="71"/>
+      <c r="R127" s="71"/>
+      <c r="S127" s="71"/>
+      <c r="T127" s="71"/>
+      <c r="U127" s="71"/>
+      <c r="V127" s="71"/>
+      <c r="W127" s="71"/>
+      <c r="X127" s="71"/>
+    </row>
+    <row r="128" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="53"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="53"/>
       <c r="G128" s="17"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
-      <c r="L128" s="54"/>
-      <c r="M128" s="54"/>
-      <c r="N128" s="54"/>
-      <c r="O128" s="54"/>
+      <c r="H128" s="53"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="53"/>
+      <c r="K128" s="53"/>
+      <c r="L128" s="53"/>
+      <c r="M128" s="53"/>
+      <c r="N128" s="53"/>
+      <c r="O128" s="53"/>
       <c r="P128" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="Q128" s="54"/>
-      <c r="R128" s="54"/>
-      <c r="S128" s="54"/>
+      <c r="Q128" s="53"/>
+      <c r="R128" s="53"/>
+      <c r="S128" s="53"/>
       <c r="T128" s="17" t="s">
         <v>38</v>
       </c>
@@ -5021,7 +5027,7 @@
       <c r="W128" s="17"/>
       <c r="X128" s="17"/>
     </row>
-    <row r="129" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="36" t="s">
         <v>166</v>
       </c>
@@ -5050,35 +5056,35 @@
       <c r="W129" s="5"/>
       <c r="X129" s="5"/>
     </row>
-    <row r="130" spans="1:24" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
         <v>162</v>
       </c>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="54"/>
-      <c r="G130" s="54"/>
-      <c r="H130" s="54"/>
-      <c r="I130" s="54"/>
-      <c r="J130" s="54"/>
-      <c r="K130" s="54"/>
-      <c r="L130" s="54"/>
+      <c r="E130" s="53"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="53"/>
+      <c r="I130" s="53"/>
+      <c r="J130" s="53"/>
+      <c r="K130" s="53"/>
+      <c r="L130" s="53"/>
       <c r="M130" s="17"/>
-      <c r="N130" s="54"/>
-      <c r="O130" s="54"/>
-      <c r="P130" s="54"/>
-      <c r="Q130" s="54"/>
-      <c r="R130" s="54"/>
-      <c r="S130" s="54"/>
-      <c r="T130" s="54"/>
-      <c r="U130" s="54"/>
-      <c r="V130" s="54"/>
+      <c r="N130" s="53"/>
+      <c r="O130" s="53"/>
+      <c r="P130" s="53"/>
+      <c r="Q130" s="53"/>
+      <c r="R130" s="53"/>
+      <c r="S130" s="53"/>
+      <c r="T130" s="53"/>
+      <c r="U130" s="53"/>
+      <c r="V130" s="53"/>
       <c r="W130" s="17"/>
       <c r="X130" s="17"/>
     </row>
-    <row r="131" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -5106,7 +5112,7 @@
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
     </row>
-    <row r="132" spans="1:24" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -5133,7 +5139,7 @@
       <c r="W132" s="17"/>
       <c r="X132" s="17"/>
     </row>
-    <row r="133" spans="1:24" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="74" t="s">
         <v>169</v>
@@ -5161,23 +5167,23 @@
       <c r="W133" s="74"/>
       <c r="X133" s="74"/>
     </row>
-    <row r="134" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="53"/>
       <c r="H134" s="17"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="54"/>
-      <c r="M134" s="54"/>
-      <c r="N134" s="54"/>
-      <c r="O134" s="54"/>
-      <c r="P134" s="54"/>
+      <c r="I134" s="53"/>
+      <c r="J134" s="53"/>
+      <c r="K134" s="53"/>
+      <c r="L134" s="53"/>
+      <c r="M134" s="53"/>
+      <c r="N134" s="53"/>
+      <c r="O134" s="53"/>
+      <c r="P134" s="53"/>
       <c r="Q134" s="17"/>
       <c r="R134" s="17"/>
       <c r="S134" s="17"/>
@@ -5187,7 +5193,7 @@
       <c r="W134" s="17"/>
       <c r="X134" s="17"/>
     </row>
-    <row r="135" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="36"/>
       <c r="B135" s="5" t="s">
         <v>166</v>
@@ -5216,7 +5222,7 @@
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
     </row>
-    <row r="136" spans="1:24" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17"/>
       <c r="B136" s="74" t="s">
         <v>165</v>
@@ -5244,23 +5250,23 @@
       <c r="W136" s="74"/>
       <c r="X136" s="74"/>
     </row>
-    <row r="137" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="54"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="54"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="54"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
       <c r="H137" s="17"/>
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
-      <c r="K137" s="54"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="54"/>
-      <c r="O137" s="54"/>
-      <c r="P137" s="54"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="53"/>
+      <c r="M137" s="53"/>
+      <c r="N137" s="53"/>
+      <c r="O137" s="53"/>
+      <c r="P137" s="53"/>
       <c r="Q137" s="17"/>
       <c r="R137" s="17"/>
       <c r="S137" s="17"/>
@@ -5270,14 +5276,14 @@
       <c r="W137" s="17"/>
       <c r="X137" s="17"/>
     </row>
-    <row r="138" spans="1:24" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="36"/>
-      <c r="B138" s="58" t="s">
+      <c r="B138" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C138" s="58"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="58"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="57"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -5298,13 +5304,13 @@
       <c r="W138" s="5"/>
       <c r="X138" s="5"/>
     </row>
-    <row r="139" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="59" t="s">
+    <row r="139" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C139" s="47"/>
-      <c r="D139" s="60"/>
-      <c r="E139" s="60"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="59"/>
       <c r="F139" s="17"/>
       <c r="G139" s="17"/>
       <c r="H139" s="17"/>
@@ -5320,7 +5326,7 @@
       <c r="W139" s="17"/>
       <c r="X139" s="17"/>
     </row>
-    <row r="140" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="38" t="s">
         <v>168</v>
       </c>
@@ -5341,7 +5347,7 @@
       <c r="W140" s="17"/>
       <c r="X140" s="17"/>
     </row>
-    <row r="141" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="37" t="s">
         <v>170</v>
       </c>
@@ -5362,7 +5368,7 @@
       <c r="W141" s="17"/>
       <c r="X141" s="17"/>
     </row>
-    <row r="142" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="37" t="s">
         <v>171</v>
       </c>
@@ -5383,7 +5389,7 @@
       <c r="W142" s="17"/>
       <c r="X142" s="17"/>
     </row>
-    <row r="143" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="37" t="s">
         <v>172</v>
       </c>
@@ -5404,7 +5410,7 @@
       <c r="W143" s="17"/>
       <c r="X143" s="17"/>
     </row>
-    <row r="144" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="37" t="s">
         <v>173</v>
       </c>
@@ -5425,7 +5431,7 @@
       <c r="W144" s="17"/>
       <c r="X144" s="17"/>
     </row>
-    <row r="145" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="37" t="s">
         <v>174</v>
       </c>
@@ -5446,7 +5452,7 @@
       <c r="W145" s="17"/>
       <c r="X145" s="17"/>
     </row>
-    <row r="146" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="37" t="s">
         <v>175</v>
       </c>
@@ -5464,7 +5470,7 @@
       <c r="W146" s="17"/>
       <c r="X146" s="17"/>
     </row>
-    <row r="147" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
@@ -5480,7 +5486,7 @@
       <c r="W147" s="17"/>
       <c r="X147" s="17"/>
     </row>
-    <row r="148" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
@@ -5496,7 +5502,7 @@
       <c r="W148" s="17"/>
       <c r="X148" s="17"/>
     </row>
-    <row r="149" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
@@ -5512,7 +5518,7 @@
       <c r="W149" s="17"/>
       <c r="X149" s="17"/>
     </row>
-    <row r="150" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
       <c r="F150" s="17"/>
@@ -5528,7 +5534,7 @@
       <c r="W150" s="17"/>
       <c r="X150" s="17"/>
     </row>
-    <row r="151" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
@@ -5544,7 +5550,7 @@
       <c r="W151" s="17"/>
       <c r="X151" s="17"/>
     </row>
-    <row r="152" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
       <c r="F152" s="17"/>
@@ -5560,7 +5566,7 @@
       <c r="W152" s="17"/>
       <c r="X152" s="17"/>
     </row>
-    <row r="153" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:24" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
@@ -5578,29 +5584,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B102:R102"/>
-    <mergeCell ref="D104:X104"/>
-    <mergeCell ref="B73:X73"/>
-    <mergeCell ref="B82:L82"/>
-    <mergeCell ref="A84:X84"/>
-    <mergeCell ref="A91:X91"/>
-    <mergeCell ref="B100:K101"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="A27:X27"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="B136:X136"/>
-    <mergeCell ref="F113:M113"/>
-    <mergeCell ref="F122:M122"/>
-    <mergeCell ref="A127:X127"/>
-    <mergeCell ref="B133:X133"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A6:X6"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A13:X13"/>
-    <mergeCell ref="B20:L20"/>
     <mergeCell ref="B68:X68"/>
     <mergeCell ref="D35:X35"/>
     <mergeCell ref="N26:X26"/>
@@ -5613,9 +5596,32 @@
     <mergeCell ref="B59:X59"/>
     <mergeCell ref="B65:X65"/>
     <mergeCell ref="B23:L23"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A6:X6"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A13:X13"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B136:X136"/>
+    <mergeCell ref="F113:M113"/>
+    <mergeCell ref="F122:M122"/>
+    <mergeCell ref="A127:X127"/>
+    <mergeCell ref="B133:X133"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="A27:X27"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="B102:R102"/>
+    <mergeCell ref="D104:X104"/>
+    <mergeCell ref="B73:X73"/>
+    <mergeCell ref="B82:L82"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="A91:X91"/>
+    <mergeCell ref="B100:K101"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
+  <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.28000000000000003" bottom="0.11811023622047245" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
